--- a/news_data/2017_11.xlsx
+++ b/news_data/2017_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,64 +22,94 @@
     <t>naver_news_articles</t>
   </si>
   <si>
-    <t>제주도 관광협회, '제15차 제주관광포럼' 14일 개최</t>
-  </si>
-  <si>
-    <t>제주도, 인두세·저가 관광상품 자제 권고</t>
-  </si>
-  <si>
-    <t>中관광객 끊긴 제주도, 소매판매 업황 다시 부쩍↑</t>
-  </si>
-  <si>
-    <t>제주도관광협회 킨텍스서 제주관광 홍보</t>
-  </si>
-  <si>
-    <t>제주도 우도맛집 섬소나이, 관광객들이 즐겨 찾는 맛집 ‘눈길’</t>
-  </si>
-  <si>
-    <t>제주도, 관광질서 확립 유관기관 합동단속 강력 추진</t>
-  </si>
-  <si>
-    <t>일본 한의웰니스 관광단, 제주도 찾는다</t>
-  </si>
-  <si>
-    <t>제주도 "질적 관광 기반으로 중국시장 회복"</t>
-  </si>
-  <si>
-    <t>제주도 고기국수 맛집 ‘본디국수’, 찾아오는 관광객 위한 넓은 주차장 확보...</t>
-  </si>
-  <si>
-    <t>국내 최고의 관광지 제주, 더욱 풍성한 여행 만들어 줄 제주도 중문 횟집</t>
-  </si>
-  <si>
-    <t>제주도 관광협회, '제15차 제주관광포럼' 14일 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광협회, '제15차 제주관광포럼' 14일 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광협회, '제15차 제주관광포럼' 14일 개최 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2017.11.09 16:25 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 오는14일 오후 4시 메종글래드제주에서 '제15차 제주관광포럼'을 개최한다.이번 포럼에서는 제주국제대학교 신왕우 교수가 '제주지역 관광사업체 공급과잉에 따른 개선방안 모색' 주제로 발표 한 후 오상훈 제주대학교 교수가 좌장을 맡아 전문가 토론을 진행할 예정이다.이 날 신왕우 교수는 가속화되는 제주지역 관광사업체 공급과잉의 문제를 진단하고, 숙박업·렌터카업을 중심으로 개선방안을 제시할 예정이다.전문 토론에는 한국문화관광연구원 류광훈 선임연구위원, 제주한라대학교 송성진 교수, 제주특별자치도관광협회 렌트카업분과 장성욱 위원장, 일반숙박업분과 정양훈 위원장, 관광지업분과 홍종훈 부위원장, 제주연구원 손상훈 책임연구원 등 도내․외 각 분야 전문가 및 업계 관계자가 참가할 예정이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 인두세·저가 관광상품 자제 권고 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도, 인두세·저가 관광상품 자제 권고 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도, 인두세·저가 관광상품 자제 권고 기자명 변미루 기자 입력 2017.11.07 17:01 수정 2017.11.07 17:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도·관광업계 6일 간담회 개최불법행위 엄벌·업계 자정 노력키로 제주도가 유커(遊客·중국인 관광객) 모객을 위한 인두세 지급과 저가 관광상품 판매 등의 관행을 자제할 것을 관광업계에 권고했다.제주도는 지난 6일 제주웰컴센터 3층 회의실에서 도내 관광 및 면세업계 종사자 등 20여명이 참석한 가운데 간담회를 개최했다고 7일 밝혔다.이날 간담회는 최근 한·중 관계가 개선될 조짐을 보이면서 중국시장 회복에 대한 대응계획을 논의하기 위해 추진됐다.이 자리에서 이승찬 도 관광국장은 "모든 정책적 수단을 가동해 저가관광 개선에 집중할 계획"이라며 "제주관광 독과점 여행사는 인두세 지급과 저가상품 판매를 자제하고, 고품격 상품개발 등을 통해 영업 관행을 개선해달라"고 당부했다.이와 함께 이 국장은 무등록 여행사·가이드 운영에 대해 강력한 단속을 추진하겠다고 밝혔다. 관광업계 종사자들은 송객수수료 문제와 관련해 도내 면세점 3곳에 자발적인 기준을 마련해 독과점 문제를 해결해줄 것을 요청했다. 또 저가관광을 근절하기 위해 법·제도적 개선과 더불어 업계의 자정 노력이 필요하다는데 공감대를 형성했다.김영진 제주도관광협회장은 "크루즈 선석 배정시 저가 관광상품을 배제하거나, 전세기 상품구성에 대해 면밀히 검토한 뒤 예산을 지원하는 등 실질적인 대책이 시급하다"며 "또 제주형 중국전담 여행사를 지정하는 제도를 검토해볼 필요가 있다"고 의견을 제시했다.관광업계 관계자는 "지금까지 관광당국이 업계의 문제점을 방치하는 태도를 보여온데 비해 이번에는 직접 제재하겠다는 의지를 강력히 보여줬다"며 "이번 기회에 당국과 업계가 힘을 합쳐 제주관광의 병폐를 뿌리뽑길 바란다"고 말했다. 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>中관광객 끊긴 제주도, 소매판매 업황 다시 부쩍↑ - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 中관광객 끊긴 제주도, 소매판매 업황 다시 부쩍↑ 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 中관광객 끊긴 제주도, 소매판매 업황 다시 부쩍↑ 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.11.09 15:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 소매판매 4.5% 증가...상승률 전국 '2위' 슈퍼.편의점 큰 증가세...숙박.음식점은 '하락' ▲ 3분기 서비스업생산 및 소매판매 동향자료. &lt;자료=통계청&gt; 중국정부와 사드 배치를 둘러싼 갈등으로 중국인관광객이 크게 줄어들면서 위축됐던 제주지역 소매판매가 지난 여름관광시즌을 기점으로 해 다시 회복세를 이어나가고 있는 것으로 나타났다.9일 통계청이 발표한 '2017년 3분기 시.도 서비스업생산 및 소매판매 동향' 자료에 따르면 3분기 서비스업생산은 지난해 같은기간과 비교해 충남(4.9%), 경기(4.5%), 서울(4.1%) 등은 부동산․임대, 금융․보험, 보건․사회복지 등에서 호조를 보여 증가율이 높은 것으로 조사됐다.소매판매는 서울(4.6%), 제주(4.5%), 충남(4.5%) 등의 순으로 대형마트, 승용차․연료소매점 등에서 판매가 늘어 증가세가 높게 나타났다.제주지역은 서비스업생산에서의 경우 숙박․음식점, 하수·폐기물처리 등에서 감소했으나, 금융․보험, 부동산·임대, 도소매 등에서 늘어 지난해와 비교해 3.6% 증가율을 보였다. 특히 금융·보험(13.4%)와 부동산.임대(10.1%)에서 증가세가 컸다.반면 숙박·음식점(-4.5%), 하수·폐기물처리(-16.9%), 사업시설관리·사업지원(-0.9%) 등은 모두 마이너스 성장세를 기록했다.이러한 가운데 소매판매에서는 제주도가 높은 상승세를 보였다. 승용차․연료소매점(12.0%), 슈퍼마켓․편의점(6.3%), 대형마트(1.0%) 등에서 늘어 전년동분기대비 4.5% 증가했다.제주지역 소매판매는 지난해 2분기 13.3%, 3분기 11.6%, 4분 9.0% 등 높은 증가세를 보여오다가, 중국정부의 한국관광 금지령이 내려진 올해 1분기 증가율이 5.4%로 둔화된데 이어, 관광객 발길이 뚝 끊긴 2분기에서는 마이너스 3.3%를 기록했다. 특히 2분기에서 대형마트에서는 12.0%의 큰 감소율을 보였다.그러다가 이번에 4.5%의 증가율로 점차 회복세를 보이고 있다. 이는 제주방문 중국인 관광객은 지난해와 비교해 무려 200만명이 줄었으나 7~8월 여름 휴가시즌 동안 내국인관광객 증가로 인해 대체효과를 봤기 때문으로 풀이된다.이같은 흐름이 지속될 경우 제주지역 소매판매도 점차 지난해와 비슷한 수준으로 회복될 것으로 전망되고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회 킨텍스서 제주관광 홍보 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회 킨텍스서 제주관광 홍보 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 킨텍스서 제주관광 홍보 정용기 기자 승인 2017.11.16 16:25 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 16일부터 19일까지 경기도 킨텍스에서 열리는 소비자 박람회 ‘메가쇼’에 참가해 제주관광 홍보부스를 운영하고 있다.제주도관광협회는 홍보부스에서 새롭게 바뀐 제주시티투어버스와 제주의 청정 자연 관광 콘텐츠를 방문객에게 소개하고 있다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 우도맛집 섬소나이, 관광객들이 즐겨 찾는 맛집 ‘눈길’ 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.08.11 (목) 구름많음동두천 24.3℃ 흐림강릉 22.8℃ 비서울 23.9℃ 비대전 24.2℃ 흐림대구 28.5℃ 흐림울산 28.7℃ 흐림광주 26.1℃ 흐림부산 28.3℃ 흐림고창 26.7℃ 흐림제주 31.6℃ 구름많음강화 24.4℃ 흐림보은 23.8℃ 흐림금산 24.1℃ 흐림강진군 28.6℃ 흐림경주시 27.7℃ 흐림거제 27.6℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 제주도 우도맛집 섬소나이, 관광객들이 즐겨 찾는 맛집 ‘눈길’ 강유라 기자 news@pcss.co.kr 등록 2017.11.06 14:57:21 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 섬의 형태가 소가 드러누웠거나 머리를 내민 모습과 같다고 하여 지어진 이름 우도는 제주도를 방문하는 방문객들이 주로 찾는 관광지로 알려져 있다.남쪽 해안과 북동쪽 탁진포를 제외한 모든 해안에는 해식애가 발달하였고, 한라산의 기생화산인 쇠머리오름이 있을 뿐 섬 전체가 하나의 용암대지이며, 고도 30m 이내의 넓고 비옥한 평지는 색다른 여행의 추억과 볼거리를 제공한다.부서진 산호로 이루어진 백사장 등 아름다운 경관을 자랑하는 우도 8경이 유명하며, 매년 350만명 이상의 관광객이 찾는 섬으로 볼거리 외에도 다양한 맛집이 즐비하다.이 가운데 제주 우도맛집 섬소나이에서는 우도주민들이나 성산일출봉맛집을 찾는 관광객들에게 좀처럼 섬에서 맛볼 수 없는 피자와 짬뽕을 제공한다.섬소나이의 대표메뉴인 피자는 모든 피자 도우를 우도특산물인 톳을 넣어 직접 만들어 숙성해서 사용하며, 상큼한 파인애플과 토마토, 고소한 우도땅콩, 치즈가 들어간 피자로 바삭한 식감과 담백한 맛이 나 우도 땅콩막걸리와 함께 먹으면 더욱 맛있게 즐길 수 있다.또 다른 대표메뉴인 짬뽕의 육수는 12시간 직접 끓이고 한약재 등 10가지 이상의 재료가 들어가며 신선한 해산물과 우도 특산물인 톳을 넣어 만든 톳면과 모자반 고명을 맛볼 수 있다.섬소나이 관계자는 “주문 즉시 한 그릇씩 조리하며 짬뽕에 들어간 해산물은 모두 국산을 사용해서 조리하고 있다”면서“신선한 재료사용을 원칙으로 고기잡이배가 운행하는 날에만 오픈하고 있다”고 전했다.한편 제주도 우도맛집 섬소나이는 하고수동해수욕장 앞에 위치해 있으며 자세한 문의 사항은 대표전화를 통해 확인 가능하다. 강유라 기자 의 전체기사 보기 관련태그 #우도맛집 #섬소나이 강유라 기자 기업현장을 찾고 있습니다. 알아두면 쓸모있는 우리 주변의 정보를 모으겠습니다. 이메일news@pcss.co.kr 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 이슈·기획 [김능구와 이강윤의 여론조사 대해부 8월②] “비대위 체제의 국힘, ‘여당 다움’ 회복하는 변화 기회 될까?” [정연아 칼럼] 윤석열 대통령의 패션에는 상식이 없다(2) 尹대통령 “국민안전에 대해 국가는 무한책임, 모든 공직자는 꼭 알고 있어야” 尹정부 첫 주택공급대책 16일 발표…폭우에 한 주 연기 김동연 첫 도정연설서 '경기도 여야정 협치모델' 제안... 尹정부 "일 제대로 못해" 홍준표 “사면은 검찰 아닌 정치 잣대…국민통합 대사면 해야” 많이 본 기사 1[김능구와 이강윤의 여론조사 대해부 8월②] “비대위 체제의 국힘, ‘여당 다움’ 회복하는 변화 기회 될까?” 2금융투자협회 "7월 글로벌 경기 침체 우려로 금리 하락…개인 채권투자 큰폭 증가, 외국인 순투자 지속" 3[알앤써치] 차기 ‘이재명39.6%-오세훈13.3%-한동훈12.8%’ 4[이슈] 비대위에 “윤핵관 NO” 외친 주호영, 당내 부정기류까지…‘권성동 배제론’ 대두 5홍준표 “사면은 검찰 아닌 정치 잣대…국민통합 대사면 해야” 6[한길리서치] 민주당 대표 지지도 ‘이재명44.9%-박용진28.8%-강훈식4.5%’ 7尹대통령, 윤희근 경찰청장 임명 재가…청문보고서 없는 11번째 임용 이슈 더보기 [이슈] 비대위에 “윤핵관 NO” 외친 주호영, 당내 부정기류까지…‘권성동 배제론’ 대두 [폴리뉴스 김유경 기자] 국민의힘이 '당 비상상황'으로 규정하고주호영 비상대책위원장을 내세운 비대위 체제로 전환했다. 주 위원장은 비대위원장으로 첫 일성으로비대위원에 '윤핵관 배제' 입장을 밝혔다. 집권여당이 이 같은 위기 상황에 놓이게 된 데에는 이준석 대표뿐 아니라 ‘윤핵관(윤석열 대통령 핵심 관계자)’에도 책임이 있는 비판이 당내에서 나오고 있다. 특히 당지도부인 권성동 원내대표의 책임론이 거론되면서 '권성동 비대위 배제론'이 대두되고 있다. 비대위 체제 전환과 이준석대표 자동해임 상황에 이르기까지 그 출발점은 이 대표의 성상납 및 증거인멸 시도 의혹 관련한 윤리위원회 징계 결정이다.'윤심' 개입설, '윤핵관 음모론'이 퍼져있는 가운데윤 대통령과 권성동 원내대표의‘내부총질’ 문자 파동이 터지면서 '윤핵관 대 이준석'의내분 사태는일파만파로 커져갔다. 게다가 권 원내대표는 대통령실 사적 채용·9급공무원 임금 발언 문제도 안고 있다. 무엇보다 '원내대표'와 '대표직무대행'까지 당대표와 원내대표 권한을 모두 갖고 있었던 '원톱'이었음에도 당을 결국 비대위 체제로 만들었다는 비판을 면키는 어려워졌다. 주호영 비대위원장은 지난 9일 비대위원장 취임 연설에서 “상 [김능구와 이강윤의 여론조사 대해부 8월②] “비대위 체제의 국힘, ‘여당 다움’ 회복하는 변화 기회 될까?” [폴리TV][김능구와 이강윤의 여론조사 대해부 8월②] “비대위 체제의 국힘, ‘여당 다움’ 회복하는 변화 기회 될까?” [이슈] 이준석, 결국 '비대위 효력정지' 가처분 신청, 법적 전면전 선포...국민의힘 격랑 [김능구와 이강윤의 여론조사 대해부 8월①] “국정지지율 반전의 기회, 윤 대통령의 초심 ‘공정과 상식’에 답이 있다” 인터뷰 더보기 [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표가 전하는 고물가 고금리 고환율 시대의 투자 전략 [폴리뉴스 강경우 PD] 폴리뉴스는 씽크풀 김동진 대표를 만나 하반기 경제 전망과 한미 금리 인상, 국내 증시 전망과 투자 전략 등에 대해 들어봤다. 김동진 대표는 연세대학교 경영학과와 대학원을 졸업하고 1986년 한국은행에 입행해 조사부와 은행감독원에 8년 간 근무하고 1994년 씽크풀을 설립해 대표직을 맡고 있다. [스페셜 인터뷰] 씽크풀 김동진 대표가 전하는 고물가 고금리 고환율 시대의 투자 전략 [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표 전하는 하반기 주식시장 전망 [폴리TV][김능구의 정국진단] 이원욱 의원이 진단하는 민주당 대선 패배의 원인 ② [폴리TV][스페셜 인터뷰]② 이용섭 전 광주시장 “국가균형발전 핵심 정책으로 초광역화 사업 반영돼야” [폴리TV][스페셜 인터뷰]① 이용섭 전 광주시장 “尹정부, 부자감세 비판 면하기 어려워… MB정부 낙수효과 실패 교훈 삼아야” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 尹대통령, 윤희근 경찰청장 임명 재가…청문보고서 없는 11번째 임용 [폴리뉴스 한지희 기자] 윤석열 대통령이 윤희근 경찰청장 임명안에 재가했다. 이에 야당에서는 “국민은 안중에도 없는 독선과 독주”라고 힐난했다. 윤 대통령은 10일 윤 청장에게 임명장을 수여했다. 지난 8일 오전 10시부터 오후 7시까지 장장 9시간동안의 인사청문회을 거쳤지만 더불어민주당의 반대로 채택되지 못했음에도다. 청문보고서 채택 없이 임명된 인선으론 박진 외교부·이상민 행정안전부·박보균 문화체육관광부·원희룡 국토교통부·한동훈 법무부·김현숙 여성가족부·박순애 교육부 장관과 김창기 국세청장, 김승겸 합참의장, 김주현 금융위원장 등이다. 지난 8일 박순애 사회부총리 겸 교육부 장관은 결국 사퇴했다. 윤 경찰청장은 이날 오후 취임사에서 "경찰권은 엄격한 견제와 감시 아래 행사돼야 하지만 경찰의 중립성과 책임성 또한 결코 훼손돼선 안 된다. 어떠한 바람에도 중심을 잡고 나아가도록 최선을 다하겠다"고 밝혔다. 또 "안전은 국민의 기본권이자 경찰의 존재 이유인 만큼 든든한 민생안전을 확보하겠다"며 "법질서는 국민 안전의 기초이며 사회통합과 국가발전의 원동력이다. 집회 시위 현장에서도 균형 있고 일관된 법 집행이 이뤄져야 한다"고 강조했다. 그러면서 “환경변화에 선 홍준표 “사면은 검찰 아닌 정치 잣대…국민통합 대사면 해야” 박진 장관, 中에 "사드3불, 합의·약속 아니다…한중관계는 사드가 전부 아냐" "31년의 외침, 할머니들에게 인권을"…'위안부' 기림일 맞아 세계연대집회로 열려 '비구름 남하' 충청권 최대 300mm 이상 물폭탄 비상…8일 이후 폭우로 16명 사망·실종 폴리TV 더보기 [폴리TV][김능구와 이강윤의 여론조사 대해부 8월②] “비대위 체제의 국힘, ‘여당 다움’ 회복하는 변화 기회 될까?” [폴리TV][김능구와 이강윤의 여론조사 대해부 8월①] “국정지지율 반전의 기회, 윤 대통령의 초심 ‘공정과 상식’에 답이 있다” [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표가 전하는 고물가 고금리 고환율 시대의 투자 전략 [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표 전하는 하반기 주식시장 전망 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 08월 11일 10시 15분 최상단으로</t>
-  </si>
-  <si>
-    <t>제주도, 관광질서 확립 유관기관 합동단속 강력 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광질서 확립 유관기관 합동단속 강력 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광질서 확립 유관기관 합동단속 강력 추진 기자명 고병수 기자 입력 2017.11.10 04:03 수정 2017.11.10 07:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 道, 행정시, 자치경찰, 관광협회 매월 정기단속 실시 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 2017년 11월부터 道, 행정시, 자치경찰, 제주관광협회와 합동단속팀을 꾸려 주요 관광지를 중심으로 무자격가이드, 무등록여행업, 자가용 유상운송행위 등에 대한 합동단속을 강력히 추진할 계획이라고 밝혔다.이번 단속을 통해, 무자격가이드를 고용한 업체는 행정처분을 하고 무자격가이드에게는 100만원 이하의 과태료를 부과한다.또한 관광종사원 자격증을 다른 사람에게 대여한 경우에는 자격을 취소할 계획이다.특히 이번에는 종전의 단체관광객 위주의 단속에서 가족단위 방문객 등 개별관광객을 대상으로 한 무자격 가이드에 대한 단속을 강화해 나갈 방침이다. 무등록여행업을 한 경우에는 관광진흥법에 따라 의법조치 등 강력히 조치를 하고 면허 또는 등록을 하지 않고 자가용이나 사업용 자동차를 빌린 후 유상 운송하는 행위 등에 대해서도 여객자동차운수사업법에 따라 형사처벌을 할 계획이다.관계자는 "일부 외국인 무자격가이드가 과태료 등 금전적 제재를 두려워하지 않고 무자격가이드 행위를 할 경우에는 그 불법행위를 강력히 제재하기 위해 법무부(출입국관리사무소)에 입국거부 등을 요청도 병행한다"고 말했다.한편 도는 작년 8월에 관광진흥법이 개정되면서 무자격 가이드에 대한 처벌 조항이 신설됐고이 개정된 조항에 따라 올해에는 9월30일 현재 무자격가이드 8명, 무등록 여행업 13건 등 총 21건을 적발하고 과태료 등 행정처분을 한 바 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>일본 한의웰니스 관광단, 제주도 찾는다 - 민족의학신문 × 전체기사 뉴스 전체 종합 공공/정책 한의협/지부/한의계 학회/연구/교육 보험/경영 약재/약품 의료산업/의료기기 병원/개원가/생활건강 보건의료 사설/칼럼 전체 사설 칼럼 시평 교차로 기고 포토뉴스 기획 전체 기획기사 이사람 인터뷰 인물탐구 명의의안 고의서산책 임상정보 완료연재물 학술기행 책, 사람을 잇다 보험 한의학 미래 짊어질 젊은 연구자들 [특별기획]동의보감 홍보 문화/과학 전체 도서비평 영화읽기 문화산책 과학 외국어/한의원 영어 새책 포럼 전체 집중토론 Weekly Section 전체 Mon 웰빙(Well-being)! 펀빙(Fun-being)! Tue 세계속의 한의학 Wed 임상한의사를 위한 연구동향 Fri 한의학 팟캐스트 Thu 한의학 위키칼럼 &amp; 메타블로그 전체메뉴 뉴스 종합 공공/정책 한의협/지부/한의계 학회/연구/교육 보험/경영 약재/약품 의료산업/의료기기 병원/개원가/생활건강 보건의료 한의원 알림 사설/칼럼 사설 칼럼 시평 교차로 기고 포토뉴스 민족만평 기획 기획기사 이사람 인터뷰 인물탐구 명의의안 고의서산책 임상정보 학술기행 책, 사람을 잇다 [특별기획]동의보감 홍보 문화/과학 도서비평 Book 영화 문화 과학 외국어/한의원 영어 포럼 집중토론 운영위원회 자료집 게시판 공고 및 학술대회 동정/인사 알림 자료실 링크 관련법령 관련통계 기타 전체기사 포토뉴스 기사검색 검색 최종편집 : 2022-10-04 08:04 (화) 로그인 회원가입 이전 다음 일본 한의웰니스 관광단, 제주도 찾는다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 뉴스 한의협/지부/한의계 일본 한의웰니스 관광단, 제주도 찾는다 전예진 기자 승인 2017.11.02 15:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 전예진 기자 hustlejin@http:// × ◇지난 8월 일본 오사카에서 열린 한의웰니스 관광 설명회. [민족의학신문=전예진 기자] 일본인들로 구성된 제주 한의웰니스 관광단이 제주도를 방문한다.제주한의약연구원(원장 송상열)은 2일부터 4일까지 ‘한의웰니스 관광단’이 제주를 방문하여 도내 한의원에서 한의 진료를 받는다고 밝혔다.이번 방문은 지난 8월 일본 오사카에서 개최된 ‘제주 한의웰니스 관광 설명회’에 참석한 현지인들이 제주의 한방의료기관 및 한방관광 상품에 관심을 갖게 되어 성사됐다.한의웰니스 관광단은 2박 3일에 걸쳐 제주 지역 5개 한의원(김성진한의원, 아침한의원, 제원한의원, 제주사랑한의원, 하늘마음한의원)을 방문해 한의 진료와 제주 한의학 강의를 받고 제주 오미자차 시음회, 공진단 만들기 체험, 제주 전통요리 체험 등을 할 예정이다.제주도에는 현재 160여개의 한의원들이 있으며, 그중 10개 한의원이 외국인 환자 유치 기관으로 등록되어 있다. 이는 한의원만을 놓고 볼 때 전국에서 세 번째로 많은 수준으로, 향후 제주한방의료관광 발전에 탄탄한 기반이 될 것으로 전망된다.송상열 제주한의약연구원열 원장은 “지난 8월 일본 오사카 한의웰니스 관광 설명회의 호응이 실제 제주 방문으로 이어졌다”며, “제주지역의 우수한 한방 의료자원과 청정 제주 자연을 누리는 ‘제주형 롱스테이(long-stay) 한의웰니스’ 관광 상품의 개발을 통해 더 많은 일본인들의 제주 방문을 기대한다”고 말했다. 저작권자 © 민족의학신문 무단전재 및 재배포 금지 전예진 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 당신만 안 본 뉴스 “응급 상황에 한의사 나설 수 있다는 것 행동으로 보여주고 싶었다” 코로나 19 백신 이상반응, 한의약 치료 경험 설문연구 SCIE 저널 발표 한의사과학자 인건비‧일자리 부족…국비지원으로 연구 장려해야 심평원, 건강보험 국제연수과정 개최 [기고] 반복되는 구내염과 만성피로를 호소하는 환자의 치료케이스 ＜고의서산책/ 1026＞ - 『和平製劑之證據』② 침술은 근거 없는 신화?…“무지에 호소하는 오류일 뿐” “응급 상황에 한의사 나설 수 있다는 것 행동으로 보여주고 싶었다” 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 주요기사 벌써 3번째 비행기에서 응급처치한 한의사…“하늘의 의료에는 경계가 없다” [2022국정감사] 올해 신고된 대마 재배지 88.5ha…최근 5년 2.7배 늘어 근현대 한의학 인물사 (396): 崔炳文(1934〜?) ＜고의서산책/ 1027＞ - 『和平製劑之證據』③ [이강재의 임상8체질] 運 식약처, GMP 위반 정도에 따른 양형 기준 마련 최신뉴스 벌써 3번째 비행기에서 응급처치한 한의사…“하늘의 의료에는 경계가 없다” [2022국정감사] 올해 신고된 대마 재배지 88.5ha…최근 5년 2.7배 늘어 근현대 한의학 인물사 (396): 崔炳文(1934〜?) ＜고의서산책/ 1027＞ - 『和平製劑之證據』③ 심평원, 2021 심사평가연구소 연례보고서 창간호 발간 포토뉴스 벌써 3번째 비행기에서 응급처치한 한의사…“하늘의 의료에는 경계가 없다” [2022국정감사] 올해 신고된 대마 재배지 88.5ha…최근 5년 2.7배 늘어 근현대 한의학 인물사 (396): 崔炳文(1934〜?) ＜고의서산책/ 1027＞ - 『和平製劑之證據』③ 인기뉴스 1 “응급 상황에 한의사 나설 수 있다는 것 행동으로 보여주고 싶었다” 2 코로나 19 백신 이상반응, 한의약 치료 경험 설문연구 SCIE 저널 발표 3 한의사과학자 인건비‧일자리 부족…국비지원으로 연구 장려해야 4 심평원, 건강보험 국제연수과정 개최 5 [기고] 반복되는 구내염과 만성피로를 호소하는 환자의 치료케이스 6 ＜고의서산책/ 1026＞ - 『和平製劑之證據』② 7 침술은 근거 없는 신화?…“무지에 호소하는 오류일 뿐” 8 [이강재의 임상8체질] 運 동정/인사 식약처 식품안전정책국장 인사 [인사] 보건복지부 과장급 [인사] 보건복지부 과장급 [인사] 식품의약품안전처 국장급 [인사]보건복지부 실장급 이하 인사 발령 알림 [부음] 김완희 전 경희한의대 교수 본인상 [부음] 강형원 원광한의대 학장 빙부상 [부음] 안덕근 대한한의사협회 홍보이사 빙부상 [부음] 금오 김홍경 한의사 본인상 [부음]김선제 前 대한한의사협회 총무이사 본인상 facebook naverpost naverblog youtube 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 법인명 : 민족의학신문 (06959) 서울특별시 동작구 성대로1길 2 대표전화 : 02-826-6456 팩스 : 02-826-6457 제호 : 민족의학신문 등록번호 : 서울특별시 다06529 발행일 : 1989-07-15 등록일 : 1989-06-16 발행·편집인 : 임철홍 청소년보호책임자 : 임철홍 민족의학신문 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. © 민족의학신문. All rights reserved. 위로</t>
-  </si>
-  <si>
-    <t>제주도 "질적 관광 기반으로 중국시장 회복" &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도 "질적 관광 기반으로 중국시장 회복" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도 "질적 관광 기반으로 중국시장 회복" 기자명 변미루 기자 입력 2017.11.02 15:37 수정 2017.11.02 15:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 중국여행사 등 현지 분위기 파악저가관광 근절 등 대응계획 발표 사드 타격으로 중국인 관광객이 급감한 제주도가 질적 관광을 기반으로 중국시장 회복에 나선다.제주도는 한·중 관계가 개선됨에 따라 중국 관광업계 등에 대한 동향을 파악하고 마케팅 대응계획을 수립했다고 2일 밝혔다.도가 해외홍보사무소 등을 통해 파악한 결과 중국 여행사들은 대부분 중국 정부의 공식적인 통보를 기다리고 있는 것으로 확인됐다. 업계는 한국 단체관광 금지가 해제되는 즉시 관광상품 준비가 가능하다는 입장이다.온라인 여행사이트인 투니우(途牛), 씨트립(携程) 등은 개별비자 대행 상품을 제외하고 아직까지 한국 관광상품을 판매하고 있지 않다.도는 이같은 움직임을 주시하며 관광수요 회복에 적극 대응할 방침이다. 특히 그동안 부작용을 낳았던 양적 성장보다 질적 성장을 기조로 정책을 추진하게 된다.이를 위해 오는 6일 도내 관광업계와 중국 저가관광 근절을 위한 대책회의를 연다. 또 현지 분위기를 점검하기 위해 5일 상하이에서 제주 개별관광객(FIT) 설명회 개최에 이어 17일 쿤밍 박람회에 참가한다.도 관계자는 "사드 충격 이후 중국 의존도에서 탈피하기 위해 추진해온 시장다변화 정책을 계속 확대할 것"이라며 "저가 단체관광을 근절하고 고부가가치 관광객 유치에 주력하겠다"고 말했다. 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 고기국수 맛집 ‘본디국수’, 찾아오는 관광객 위한 넓은 주차장 확보 및 서비스 진행 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.07.21 (목) 구름조금동두천 19.7℃ 구름많음강릉 22.6℃ 비서울 21.1℃ 비대전 24.3℃ 흐림대구 22.8℃ 비울산 21.5℃ 흐림광주 25.7℃ 비부산 25.2℃ 흐림고창 24.5℃ 구름많음제주 28.6℃ 구름조금강화 20.3℃ 흐림보은 23.2℃ 구름많음금산 25.4℃ 구름많음강진군 26.8℃ 구름많음경주시 21.6℃ 흐림거제 26.0℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 제주도 고기국수 맛집 ‘본디국수’, 찾아오는 관광객 위한 넓은 주차장 확보 및 서비스 진행 강유라 기자 news@pcss.co.kr 등록 2017.11.01 16:08:14 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 우리나라 남쪽에 위치한 제주도는 여러 가지 특징적인 화산지형과 지질을 가지고 있어 화산의 보고(寶庫)라고 일컬어지고 있으며, 수려한 경치, 온난한 기후, 남국적인 식생·경관, 독특한 문화와 풍속 등 관광자원이 풍부한 곳이다. 또한 육지와의 해상 및 항공교통이 편리해 우리나라 관광지로 알려져 있으며 국제적인 관광지이기도 하다.제주도는 성산일출봉, 한라산, 섭지코지 등 여러 관광단지가 조성이 되어있기 때문에 많은 관광객이 찾아오는 곳으로도 알려져 있는데 이에 제주 국제공항은 늘 북적이는 곳이다.제주도에 위치한 천혜의 관광단지를 여행하고서 대부분 제주도에서만 특별하게 맛 볼 수 있는 음식점을 찾기 마련이다. 이에 제주도 고기국수 맛집으로 알려져 있으며 젊음의 거리 제주시청 근처에 위치한 ‘본디국수’는 최근 찾아오는 여행객들을 위해 넓은 주차장을 확보하여 서비스를 제공한다고 밝혔다.제주시청과 법원사거리 사이에 위치했고 맞은편에는 맥도날드가 위치한 ‘본디국수’는 이렇듯 다양한 젊은이들이 쉽게 찾아올 수 있는 지리적 위치를 보유했기 때문에 젊은 현지민들 사이에서 고기국수로써도 입지가 있다.‘본디국수’는 메인메뉴 고기국수, 비빔국수 및 본디한상을 제공하기에 앞서 재료로는 제주산 돼지고기와 사골만을 사용하기 때문에 여행객들에게 인기가 있다.이 곳 메뉴 중 본디한상은 해물파전과 제주도의 유명한 몸국, 물만두, 고등어구이(노르웨이), 돔베수육(제주산) 및 가오리회무침, 후식 멸치국수 4개가 푸짐하며 다양한 음식으로써 손님에게 제공된다.구성으로 해물파전은 오징어와 쪽파, 대파 및 당근 등이 함께 재료로 사용되어 맛있는 해물파전의 맛을 느낄 수 있고 특히 돔베수육의 경우 제주산 오겹살(소스, 자리돔젓갈)을 사용하기 때문에 청명하고 깨끗한 자연환경에서 자란 신선한 제주도 고기를 맛볼 수 있다.그리고 ‘본디국수’의 메인으로써 알려진 고기국수는 고기국수용 사골육수를 돼지뼈사골만 사용함으로써 끓여내며 육수를 중요시 생각하기 때문에 육수는 24시간 1번, 36시간 1번 이렇게 두 번만 사용한 뒤 모두 버려내고 다시 시작한다고 한다. (멸치국수 육수, 몸국 육수 전부 다름)특히 건물 뒤편 텃밭에서 직접 상추와 치커리를 재배하여 친환경 채소를 제공하고 있다. 또한 국수면의 경우 치자원료의 중면을 사용하고 국수 주문 시 곱빼기 또는 면 추가를 요청하여도 추가요금이 없다.한편 ‘본디국수’ 관계자 말에 따르면 “SNS에 사진을 등록하면 물만두 서비스를 제공한다”며 “현재 넓은 주차장을 갖춘 만큼 수용인원도 1층 약100명, 2층(단체) 약 50명을 수용할 수 있는 공간이 마련되어 있다”고 전했다. 강유라 기자 의 전체기사 보기 관련태그 #제주도 고기국수 맛집 #본디국수 강유라 기자 기업현장을 찾고 있습니다. 알아두면 쓸모있는 우리 주변의 정보를 모으겠습니다. 이메일news@pcss.co.kr 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 정국진단 [스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” 尹대통령 3차 비상경제민생회의 주재 “깡통전세 사기범죄, 강력한 수사로 일벌백계” 尹대통령 대우조선 공권력 투입여부 질문에 “답변 안 하겠다” 대통령실 박홍근 ‘문고리 육상시’ 언급에 “입장 발표 한 발 미루겠다” 권성동, ‘사적채용’ 발언 “제 불찰” 사과…장제원 “權 사과 진정성 받아들여야” 권성동 “민주당이 행안위‧과방위 둘다 차지하려 해…협상 변한 게 없다” 많이 본 기사 1[스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” 2[조원C&amp;I] 尹대통령 지지율32.9%-부정평가65.2%, 기대감 ‘긍정37.3%-부정60.3%’ 3[이슈] 대우조선 파업에 민주노총·금속노조 총파업 결의대회…’노노갈등’ 격화도 4[전문] 박홍근, 첫 국회 교섭단체 대표연설 “尹정부 지지율, 정권 말기 레임덕 수준” 5[노회찬 4주기에 부쳐] 정치자금법① ‘오세훈법’을 넘어 ‘노회찬법’으로 이슈 더보기 [노회찬 4주기에 부쳐] 정치자금법① ‘오세훈법’을 넘어 ‘노회찬법’으로 [폴리뉴스 한유성 기자] 2018년 7월 23일 대한민국을 대표하는 진보정치인 노회찬 정의당 국회의원이 모친의 아파트 에서 투신하여 생을 마감했다. 그는 유서에서 ”참으로 어리석은 선택이었으며 부끄러운 판단이었다. 책임을 져야 한다. 국민 여러분! 죄송합니다. 모든 허물은 제 탓이니 저를 벌하여 주시고, 정의당은 계속 아껴주시길 당부드립니다”라고 썼다. 권위주의 정권으로부터 항상 감시당하고 사찰당하는 진보정치인으로 그 어떤 정치인보다도 청렴하고 정직한 삶을 살아야 했던 노회찬 의원도 현행 정치자금법에 숨겨진 덫을 피해 갈 수는 없었다. 노회찬의 죽음에 대해 당시 바른미래당 당협위원장이던 이준석 국민의힘 대표는 "제도(정치자금법)가 사람을 안타까운 죽음으로 내몰았다"고 표현했다. 최병천 민주연구원 연구위원은 "지킬 수 없게 설계된 법이 그를 죽음으로 몰고 갔다"고 했고, 박지원 전 국정원장은 "원숭이는 나무에서 떨어져도 원숭이지만 국회의원은 (선거에서) 떨어지면 사람이 아니다"라고 말했다. 돈을 적게 쓰는 정치를 표방한2004년 개정정치자금법(일명 오세훈법) 2003년 10월, 노무현 전 대통령은 국회 예산안 시정연설에서 "지금의 (정치자금) 제도는 원천적으로 [스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [폴리TV][스페셜인터뷰] 홍종호 서울대 환경대학원 교수① “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [이슈] 대우조선 파업에 민주노총·금속노조 총파업 결의대회…’노노갈등’ 격화도 [이슈] 이준석, 윤리위 징계에도 세 결집 박차…당내 의견 분분 인터뷰 더보기 [스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [폴리뉴스 한유성 기자] 기후 위기 대응은 에너지 전환이 핵심이다. 탄소 중립을 위한 국제적 공조 속에 화석연료의 감축과 재생에너지의 비중을 늘려가는 에너지 믹스의 재구성 과정이 관건이지만, 구체적인 대응전략과 로드맵은 각 국의 상황에 따라 큰 차이를 보이고 있다. 미래 경제와도 떼놓고 생각할 수 없는 이슈인데, 폴리뉴스 김능구 대표는 7월 스페셜인터뷰로 홍종호 서울대 환경대학원 교수님을 모시고 우리나라의 현 주소와 바람직한 대응 방향에 대해 들어봤다. 홍종호 서울대 환경대학원 환경계획학과 교수님을 모셨다. 교수님은 경제학을 전공하셨는데, 현재는 환경과 에너지 전환에 대한 최고의 전문가로 활약하고 계신다. 간단한 이력과 함께 환경 문제에 집중하게 된 계기가 있다면 말씀해 달라. 제가 80년대 초반 학번이다. 그 당시는 대한민국이 고도 성장하던 시절이었기 때문에 경제학과를 갔으면 성장론이라든지, 미시 쪽으로 막 시작하던 정보경제학이라든지, 특히 계속 공부할 계획으로 있을 경우에는 그렇게 많은 사람들이 할 수 있는 분야를 해야 했는데, 저는 국가적으로나 학계에서도 별 관심도 없는 환경 에너지 문제를 공부하겠다고 결심을 했다. 사실 제 은사님 같은 경우 ‘그거 공 [스페셜 인터뷰] 홍종호 서울대 환경대학원 교수 “원전, 재생에너지 확대 과정의 보완 발전원으로 봐야” [폴리TV][김능구의 정국진단] 성일종 국민의힘 의원②“6.1 승리, 김종인 호남-여성-청년 3대축 추진..당 정책, 약자-민생-희망" [김능구의 정국진단] 성일종 국민의힘 정책위의장② “6.1 승리, 김종인 호남-여성-청년 3대축 추진..당 정책, 약자-민생-희망" [김능구의 정국진단] 성일종 국민의힘 정책위의장① “이재명 의혹 처리, '이회창 차떼기 사례'와 같아 ...李 총사령관 안전지대 승리. 전쟁 이긴 건 아냐” 카드뉴스 더보기 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. [카드뉴스] 日 원전 오염수 방류 결정… “안전성 불확실” [폴리뉴스 김유경 기자]日 원전 오염수 방류 결정… “안전성 불확실” 최근 일본이 후쿠시마 제1핵발전소 물탱크에 보관하고 있던 방사능 오염수 125만톤을 30년에 걸쳐 방류하겠다고 발표했습니다. 방사성 물질 농도를 법정 기준치 이하로 낮추고 천천히 방류할 것이니 상관없다고 합니다. 오염수에는 유전자 변형, 생식기능 저하 등을 일으킬 수 있는 삼중수소(트리튬)가 들어 있습니다. 삼중수소가 바다에 뿌려지면 한국 중국 등 인근 국가 수산물에 흡수돼 이를 섭취한 인간에게 치명적인 영향을 끼칠 수 있습니다. 또 스트론튬90은 극소량으로도 골육종이나 백혈병을 일으킬 수 있다고 합니다. 일본은 안하무인입니다. 한 고위관료는 “중국과 한국 따위에는 (비판을) 듣고 싶지 않다”고 발언했습니다. 미국은 “국제 안전 기준에 따른 것”이라며 일본에지지 입장을 밝혔습니다. 정작 후쿠시마 사고 이후 현재까지 사고 부근 농수산물 수입을 금지하고 있으면서 말입니다. 그런데 우리 정부는 지난해 10월 “일본의 ALPS장비 성능에 문제가 없고 오염수 방류가 큰 위협이 되지 않는다”는 보고서를 냈다고 합니다. 안심할 수 있는 안전대책, 기대할 수 있을까요? 트렌드&amp;토픽 더보기 국민의힘 혁신위, 시민사회 경청회 “2030은 이념보다 민생” “정체성 분명히 해야” [폴리뉴스 김유경 기자] 국민의힘 혁신위원회가 지난 18일 당내 의견을 청한 데 이어 20일 시민사회 제안을 듣는 자리를 가졌다. 국민의힘 혁신위는 20일 오후 2시 국회 본관에서 ‘의견수렴 경청회’를 진행했다. 최재형 위원장은 인사말에서 "우리 당에 우호적인 생각을 갖고 계신 국민들, 지지 그룹들과 어떻게 정책을 만들어가고 관계를 유지해야 할 것인지 패널들의 말씀을 듣고 토론하는 시간"이라고 설명했다. 패널로는 이동수 청년정치크루 대표, 이웅희 바른사회시민회의 사무총장, 이용환 한반도선진화재단 사무총장, 박소영 교육바로세우기운동본부 대표, 김경회 명지대학교 석좌교수, 유동열 자유민주연구원 원장 등 시민단체 관계자들이 참석했다. 세션1에서는 국민에게 힘이 되는 정책 네트워킹 구축 방안, 세션2에서는 시민단체와의 연대, 상생을 통해 시너지를 내는 방안이 논의됐다. 먼저 이동수 청년정치크루 대표는 “먼저 전제돼야 할 게 기구나 위원회를 만드는 게 중요하다고 생각지 않는다. 청년들이 좋아하는 정당이 되면 이런 게 없어도 알아서 의견을 내고 이러한 의견들이 공감대를 얻을 수 있다”며 “청년들이 싫어할 만한 일을 하면서 네트워크를 꾸린들 효과가 없다”고 말했다. 이 [노회찬 4주기에 부쳐] 정치자금법① ‘오세훈법’을 넘어 ‘노회찬법’으로 우회전 일시정지 차량에 경적 울리면 범칙금? 정당한 사유 없이 반복된 경적엔 범칙금 4만원 경찰, 조선일보 본사 압수수색…'부수 조작 의혹' 北피격 공무원 유족 대통령기록관장 상대 행정소송…"대통령기록물 공개하라" 폴리TV 더보기 [폴리TV][스페셜인터뷰] 홍종호 서울대 환경대학원 교수① “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [폴리TV][김능구와 이강윤의 여론조사 대해부 7월③] “창조적 파괴 수준의 민주당 혁신, 전대가 배출할 새 리더십의 미션” [폴리TV][김능구와 이강윤의 여론조사 대해부 7월②] 이준석 징계 파장, 가려졌던 국힘의 민낯 드러낼까 [폴리TV][김능구와 이강윤의 여론조사 대해부 7월①] “취임 두 달만에 레임덕 우려, 윤석열의 반전은 가능한가?” 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 07월 21일 09시 04분 최상단으로</t>
-  </si>
-  <si>
-    <t>국내 최고의 관광지 제주, 더욱 풍성한 여행 만들어 줄 제주도 중문 횟집 &lt; 뉴스 투데이 &lt; 라이프 &lt; 라운지 &lt; 기사본문 - 대한금융신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 신문사소개 구독신청 로그인 회원가입 전체메뉴 버튼 최종편집 2022-10-04 10:23 (화) 기사검색 검색 최신뉴스 은행권, 장애인 의무 채용 '나몰라라' 기보, 투자연계보증 확대하여 벤처투자시장 활성화에 기여 베스텔라랩, 4차 산업혁명 Power Korea 대전 우수기업 행정안전부 장관상 수상 KB증권, 연금계좌 ETF 매수 이벤트 실시 [인사] ABL생명 [기자수첩] 금융권 회장님 변호사비는 어디서 왔을까, 다시 또 묻는다 지주 회장들, 회삿돈 써 변호사비 대납 의혹 한도까지 빚낸 한화손보…또 ‘채권 찍고, 사옥 팔고’ 모든 것 다 내주는 나무 ‘너도밤나무’ [응답하라, 우리술 268] 중양절처럼 양기 많은 날 ‘단오’ 세시주 본문영역 이전 기사보기 다음 기사보기 국내 최고의 관광지 제주, 더욱 풍성한 여행 만들어 줄 제주도 중문 횟집 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 라운지 라이프 뉴스 투데이 국내 최고의 관광지 제주, 더욱 풍성한 여행 만들어 줄 제주도 중문 횟집 입력 2017.11.09 16:51 대한금융 온라인팀 jshily@kbanker.co.kr 다른기사 보기 SNS 기사보내기 SNS 기사보내기 다른 공유 찾기 바로가기 글씨크기조절 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 URL복사 닫기 국내 관광 산업이 날로 활성화되며 과거보다 국내 여행지에 대한 선택권이 넓어졌고 볼거리, 즐길 거리의 질 또한 높아졌다.전국 곳곳으로의 여행 수요가 증가했지만, 그중에서도 제주도는 국내 여행지 중 단연 1순위로 꼽히며 꾸준한 사랑을 받고 있다. 사계절 색다른 자연경관을 경험할 수 있고, 다양한 먹거리와 풍성한 볼거리까지 더해져 가족, 친구, 연인 모두가 함께할 수 있는 여행지이기 때문.특히 제주는 싱싱함과 특색을 갖춘 지역의 먹거리가 풍부해 식도락 여행을 즐기는 이들도 많이 찾는 곳으로 올가을도 많은 관광객들의 방문이 이어질 것으로 보인다.실제로 지난 23일 제주도관광협회에 따르면 올해 10월 22일까지 제주를 찾은 내국인 관광객은 총 1100만5757명으로 전년 999만8638명보다 10.1% 증가한 수치를 보였고 이러한 추세는 연말까지 이어질 전망이다.천혜의 자연환경이 빚어내는 아름다운 제주의 가을은 식도락과 함께 눈까지 즐겁게 만들어 준다. 이에 제주관광공사는 &amp;#39;제주의 가을은 소리로 머문다&amp;#39;를 주제로 11월 놓치지 말아야 할 제주 관광 추천 10선을 발표하기도 했다. 보다 풍성한 제주 여행을 원한다면 이를 참고하는 것 또한 좋은 방법이다.여기에 보다 수준 높은 맛집까지 찾고 있다면 제주도 중문 횟집 ‘바다의마음’을 추천한다. 이곳은 제주도 3대횟집으로 손꼽히는 해송수산물회센타 대표가 중문에 제대로 된 횟집을 선보이고자 인수한 곳으로 맛은 물론이고 우수한 위생, 서비스 등으로 많은 사랑을 받고 있다.손님 상에 오르는 모든 음식은 그때그때 가장 신선한 재료만을 이용하고 있어 기본적으로 제공되는 풍성한 밑반찬은 시기마다 다르게 선보이고 있다. 최근에는 랍스터 포함 메뉴를 중심으로 실시한 대대적인 메뉴개편을 통해 고객들에게 긍정적인 반응을 이끌어내고 있다. 스페셜코스에는 모두 랍스터가 포함되며 랍스터 특별요리의 경우 랍스터회, 랍스터구이, 랍스터찜을 한 번에 맛볼 수 있다. 그밖에도 전복회, 전복죽, 계절회 등 수준 높은 메뉴 구성이 인상적이다.제주를 대표하는 관광특구인 중문에 자리 잡고 있어 인근 호텔과 관광지에서 쉽게 방문이 가능하다. 한 고객은 “해송수산물회센타가 애월에 있어 거리상 방문이 어려웠는데 ‘바다의마음’ 매장은 중문에 위치해 접근성이 좋아진 것 같다”고 만족감을 드러냈다.한편 제주도 중문 맛집 ‘바다의마음’ 이용과 예약에 대한 자세한 정보는 전화를 통해 확인할 수 있다. 저작권자 © 대한금융신문 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 많이 본 기사 최근 한달 1 한달새 2조 팔린 ‘4% 저축보험’, 은행만 노났다 2 잇단 저축은행 금융사고…‘내 돈 괜찮나’ 불안감 증폭 3 생보사, 공시이율 ‘찔끔’ 대출금리 ‘왕창’ 올렸다 4 증시 폭락에 증안펀드 만지작…“근본적 대책 아냐” 5 [ESG조직문화이야기] 내 마음의 H.E.R.O.깨우기 6 금리 고공행진에 ‘신탁형 ISA’ 들썩 7 [응답하라, 우리술 268] 중양절처럼 양기 많은 날 ‘단오’ 세시주 8 미얀마 쓴맛 본 우리카드, ‘절치부심’ 인니 진출기 9 기보, 한수원과 함께 원전·탄소중립기업 혁신지원에 앞장서 10 증권사 앱 잦은 먹통…거래수수료는 두둑 1 ‘금융투자세 2년 유예’ 국회 문턱 넘을까 2 삼성화재 ‘위풍댕댕’, 3일만에 메리츠화재 판매량 넘었다 3 뒤늦게 드러난 리치앤코의 역린…MG손보 투자금 손상처리 4 환율 1400원 시나리오…한화생명 '웃고' 삼성생명 '울고' 5 금리 1% 상승 가정했더니…‘자본잠식’ 보험사 속출 6 롯데카드 매각 부진?…이유 있는 M&amp;A 전략 7 [국감 예고편] 증권가 ‘공매도‧사모펀드‧불법대출’로 긴장 8 [허점투성이 1200% 룰] ①보험사-GA의 밀월 “시책 900% 쏩니다” 9 '전속' 빗장 푼 한화생명 GA, 설계사 반년새 800명 ↑ 10 하나카드, 롯데카드 합병으로 위기 돌파하나 대한금융DB [대한금융DB] 국내 진출한 중국계 은행 수익성 추이 [대한금융DB] 2022년 상반기 4대 은행 외화자산 현황 [대한금융DB] 2022년 8월 자동차보험 손해율 라운지의 최신 기사 베스텔라랩, 4차 산업혁명 Power Korea 대전 우수기업 행정안전부 장관상 수상 모든 것 다 내주는 나무 ‘너도밤나무’ [응답하라, 우리술 268] 중양절처럼 양기 많은 날 ‘단오’ 세시주 낙성벤처창업센터, 창업기업 대상 ‘2022 데모데이’ 진행 프레드, 최초의 메종 전시에 국내 앰버서더 장원영 참석 '애드비드' 검색광고 자동 입찰 프로그램 파워콘텐츠 기능 추가를 알려 하단영역 하단메뉴 신문사소개 고객센터 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 매체정보 서울특별시 영등포구 신길로 220 양우빌딩 202호 대표전화 : 02-783-2583 팩스 : 02-783-2586 청소년보호책임자 : 조성준 법인명 : (주)일간금융 제호 : 대한금융신문 등록번호 : 서울 아 03062 등록일 : 2014-03-24 발행일 : 1995-10-17 발행·편집인 : 조성준 대한금융신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 대한금융신문. All rights reserved. mail to webmaster@kbanker.co.kr 위로 전체메뉴 전체기사 정책 금융 전체 은행 증권 보험 2금융 카드 부동산 금융 100세 금융 해외금융 핀테크·IT 오피니언 전체 기고 기자수첩 금융인 대한금융DB 전체 은행 증권 보험 2금융 카드 자동차보험 라운지 전체 문화탐방 라이프 인사동정 전체 인사 부고 전체메뉴닫기</t>
+    <t xml:space="preserve"> 제주도관광협회, 경기지역 제주관광설명회 개최 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도내 관광사업체 중앙아시아로 해외시장 확대 추진 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회, 사랑의 연탄나눔 봉사 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "베니스만이 아냐"…제주도도 관광객이 주민생활터전 위협 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [뉴스체크｜경제] 유커의 귀환…제주도 단체 관광 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘VJ 특공대’ 소개지는 어디? 순천 관광지·은퇴농장·제주도 감귤 국민 수확단·과줄·흑돼지 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 일본인 관광객 유치 팔 걷었다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회-나가사키국제관광컨벤션협회 협력 마케팅 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 여행객들 꼭 들르는 서귀포 중문관광단지, 흑돼지 맛집 탐방도 필수 코스 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 관광객수 기준 인프라 늘리자는 제주도 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회 등반동호회, 현장체험 실시 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 영천와인, 제주도 관광지에서 홍보행사 가져 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중문호텔에서 만끽하는 겨울, 제주도 관광의 중심 히든호텔에서 매력 만끽 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "유커 와도 저가관광은 이제 그만"…제주도·업계 자정 결의 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 영천시, ‘영천와인’ 제주도 관광지서 홍보행사 가져 </t>
+  </si>
+  <si>
+    <t>제주도관광협회, 경기지역 제주관광설명회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 경기지역 제주관광설명회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 경기지역 제주관광설명회 개최 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2017.11.29 17:04 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회는 지난 28일 노보텔 앰버서더 수원에서 경기지역 여행업체, 청소년단체, 학교, 관광지 관계자 50여명이 참여한 가운데 제주관광설명회를 개최했다.이번 제주관광설명회는 교육여행 제주유치를 위한 홍보와 유네스코 3관왕 등 제주의 파워브랜드를 테마로 진행됐다.관광협회 강인철 국내여행업분과위원장은 "제주와 경기도간의 관광교류 활성화를 통해 양지역이 상생 발전하기를 기대한다"며 "앞으로도 다양한 제주의 매력을 알릴 수 있도록 노력 해나가겠다"고 전했다.한편 경기도는 지난 2015년 제주도와 상생 협력 협약을 체결한 후 양지역의 관광분야 활성화를 위해 지난 1일부터 3일까지 제주를 방문해 우수시설을 벤치마킹하고 간담회를 개최했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도내 관광사업체 중앙아시아로 해외시장 확대 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도내 관광사업체 중앙아시아로 해외시장 확대 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도내 관광사업체 중앙아시아로 해외시장 확대 추진 기자명 고병수 기자 입력 2017.11.28 15:36 수정 2017.11.29 13:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 도관광협회(회장 김영진)는 25일부터 28일까지 중앙아시아의 핵심시장인 카자흐스탄 주요여행업계 및 미디어를 초청해 도내 관광사업체 해외시장 네트워크 확대 구축을 위한 비즈니스미팅 및 제주관광상품에 대한 설명회를 개최했다고 밝혔다도관광협회에 따르면 카자흐스탄은 2014년 11월부터 양국간 무비자 협정에 따라 최근 3년간 연평균 27.1%의 카자흐스탄 방한관광객이 증가하는 등 높은 성장세를 유지하고 있는 해외여행 잠재력이 높은 국가다.해외시장 다변화 및 도내 관광사업체의 비즈니스 네트워크 확대를 위해 카자흐스탄 지역에서 주요 핵심 여행업계 10개 업체를 비롯한 언론사 등 12개업체가 참여하고 있다.도내에는 여행업체, 호텔, 관광지, 17개소의 다양한 관광사업체가 참여해 업계 홍보 및 고부가가치 해양․레저 관광상품 소개 등 업계간 1:1 비즈니스 트래블마트를 추진했다. 또한 도관광협회장(회장 김영진)과 카자흐스탄관광협회장(회장 샤이케노바 라쉬다)과의 간담회에서 양 지역 관광객 유치 활성화를 위한 고부가가치 관광상품 개발등 공동 협력마케팅을 추진하기로 하는 등 중앙아시아로의 해외시장 확대를 위한 교두보를 구축했다는 것.관계자는 "앞으로 도내 관광사업체의 네트워크 구축 확대를 통해 해외시장 경쟁력 강화와 시장 다변화를 위한 집중지원으로 제주관광 질적 성장과 함께 도민이 체감하도록 적극 노력할 것"이라고 말했다.한편 카자흐스탄은 중앙아시아 타 국가대비 개방성이 높고 소비자 구매력 및 해외여행 잠재력이 높은 국가로 2017년 10월기준 방한 관광객이 3만6967명으로 전년 3만4068명에 비해 전년 8% 증가하고 있는 등 최근 3년간 27.1% 방한 관광객이 증가하고 있는 국가다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 사랑의 연탄나눔 봉사 &lt; 열린광장 &lt; 도민광장 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 사랑의 연탄나눔 봉사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 도민광장 열린광장 제주도관광협회, 사랑의 연탄나눔 봉사 기자명 허성찬 기자 입력 2017.11.26 11:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회 사랑나눔봉사단(단장 강인철)과 제주시독거노인원스톱지원센터는 25일 화북동 독거노인들을 위한 사랑의 연탄 나눔활동을 진행했다.이날 사랑의 연탄 나눔에는 봉사단 20여명이 참여한 가운데 월동대비를 위한 쌀, 라면 등도 함께 전달했다 허성찬 기자 jejuhsc@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"베니스만이 아냐"…제주도도 관광객이 주민생활터전 위협 본문 바로가기 이전 페이지 연합뉴스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 연합뉴스 주요뉴스를 볼 수 있습니다. 보러가기 연합뉴스 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 랭킹 "베니스만이 아냐"…제주도도 관광객이 주민생활터전 위협 입력2017.11.20. 오후 3:55 수정2017.11.20. 오후 3:57 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 한은 제주본부 "관광객 수 제한, 관광이익 공정분배 사업 개발 필요"(제주=연합뉴스) 박지호 기자 = 이탈리아 베니스, 스페인 바르셀로나, 서울 북촌마을, 경남 통영 동피랑마을의 공통점이 있다면 무엇일까. 이들 지역은 모두 수용 한계를 넘어서는 관광객이 몰리면서 주민들이 생활 터전을 위협받고 있는 곳으로 꼽힌다. 음악회 열리는 제주 성산일출봉(서귀포=연합뉴스) 고성식 기자 = 10일 오후 세계자연유산인 제주 성산일출봉에서 열리는 세계자연유산 등재 10주년 기념 음악회에서 인순이가 노래하고 있다. 2017.9.10 koss@yna.co.kr제주도민들 역시 이들 지역과 마찬가지로 관광객들로 인해 삶의 질이 위협받고 있다고 인식하고 있어 입도 관광객 수를 제한할 필요성이 있다는 연구 결과가 나왔다. 한국은행 제주본부(이하 한은 제주본부)는 제주에서 투어리스티피케이션'(Touristification) 현상이 지역주민 삶의 질에 미치는 영향을 연구한 보고서를 20일 발표했다. 투어리스티피케이션은 관광지가 되어간다는 뜻의 '투어리스티파이'(Touristify)와 지역 상업화로 주민들이 밀려난다는 뜻의 '젠트리피케이션'(Gentrification)의 합성어다. 보고서가 다루고 있는 설문조사 결과에 따르면 제주도민 역시 관광객 증가로 거주환경이 악화하고 있다고 느끼고 있는 것으로 나타났다. 한은 제주본부는 제주시 연동과 구좌읍 월정리 등 10개 지역 주민 200명을 대상으로 한 설문조사를 통해 투어리스티피케이션 현상에 대한 인지도와 삶의 질을 측정한 결과를 내놨다. 조사에 응한 대부분의 주민은 거주지에 관광객 방문이 증가해 자신의 삶이 영향을 받는다고 응답했고, 그 가운데 다수가 관광객들로 인해 부동산 가격, 물가, 자연환경, 안전 및 범죄율이 악화했다고 응답한 것으로 나타났다. 실제로 최근 제주는 1인당 범죄 발생 건수, 쓰레기 발생량, 부동산 가격 등 삶의 질을 위협하는 객관적 지표들이 우려할 만한 수준으로 나빠지고 있다. 한은 제주본부는 도민들의 삶의 질 향상을 위해 관광 관련 정책을 정비하고 관광이 부정적이라는 인식을 해소하기 위한 노력이 필요하다고 제언했다. 우선 관광객 수를 수용 가능한 선에서 제한할 필요성이 있고, 관광이익을 공정하게 분배할 수 있는 사업유형 개발도 시급하다고 밝혔다. 관광지화로 인해 줄어드는 주민 여가 시간과 공간을 보전하기 위한 여가시설 및 프로그램 제공, 전문 인력 배치 등이 필요하다고도 했다. 아울러 여행자가 관광하는 만큼 지역사회에 정당한 대가를 지불해 부정적인 경제·사회·문화·환경적 영향을 최소화하자는 '공정여행 캠페인'도 추진해야 한다고 했다. jihopark@yna.co.kr▶기사제보 및 문의(클릭!)▶연합뉴스 채널 구독 400분께 스타벅스 커피 쏩니다 박지호 Copyright ⓒ 연합뉴스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 생활, 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 전역한 아들 '고깃국' 먹이려 420만원 훔친 아버지 "나 한의사야" 속여 동거 뒤 폭행·누드강요·돈 갈취 팔려가는 새끼들과 뒤쫓는 어미…젖소 가족의 눈물 파업 끝내고 돌아온 '무한도전' 오늘 국회서 촬영했다 이영애, 포항·이란 지진 피해자 위해 1억여원 기부 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 연합뉴스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 연합뉴스 헤드라인 대통령실, 한미일 훈련에 "불났는데 이웃 힘 합치는 건 당연" 이재명 부대변인 "文정부 때 약속한 사항…친일 프레임 의아" 대통령실은 11일 한미일 동해 합동 훈련과 관련, "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"라고 말했다. 대통령실 이재명 부대변 이재명 "종북몰이·색깔론, 해방후 친일파 행태와 다를바 없어"(종합) 안보대책회의서 한미일훈련 거듭 비판…회의서 '대북특사 필요' 의견도 더불어민주당 이재명 대표는 11일 한미일 3국의 동해 합동훈련과 관련, "(안보) 위기를 핑계로 일본을 한반도에 끌어들이는 자충수를 중단해야 한다" 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 국감 출석…"보도가 허위 사실이라는 메시지 내용" 최재해 감사원장 "감사개시는 감사위 의결사항 아냐" 유병호 감사원 사무총장은 11일 이관섭 대통령실 국정기획수석과 나눈 문자메시지 논란과 관련, "제 문자에 대해 논 서울서 50대 권총에 맞아…"극단적 선택 추정"(종합) 경찰 "총기번호 부여된 38구경 권총…소지 경위 조사" 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞은 채로 발견돼 병원으로 이송됐다. A씨는 현재 수술 중으 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 도로에 차 세워두고 잠들어…경찰, 절도 혐의도 수사 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 음주측정을 거부하다가 현행범으로 체포됐다. 경찰은 신씨가 타고 있던 차량에 대해 도난 신고가 들어온 사실을 확인하고 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 미국에서 무게가 1.1t이 넘는 호박이 수확돼 미국에서 가장 무거운 호박 타이틀을 거머쥐었다고 AP통신 등이 11일(현지시간) 보도했다. 통신에 따르면 샌프란시스코 인근 하프문베이에서 10일 열린 세계 호박 컨테스트 이전 뉴스들 보기 3 다음 뉴스들 보기 연합뉴스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 연합뉴스 헤드라인 더보기 대통령실, 한미일 훈련에 "불났는데 이웃 힘 합치는 건 당연" 3시간전 이재명 "종북몰이·색깔론, 해방후 친일파 행태와 다를바 없어"(종합) 10분전 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 13분전 서울서 50대 권총에 맞아…"극단적 선택 추정"(종합) 43분전 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 4시간전 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 12분전 연합뉴스 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 4시간전 2 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 7시간전 3 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 4시간전 4 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 6시간전 5 놀이터에 떨어진 미사일, 아찔했던 순간…다시 일상 깨진 키이우 2시간전 1 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 4시간전 2 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 3시간전 3 대통령실, 한미일 훈련에 "불났는데 이웃 힘 합치는 건 당연" 3시간전 4 野 "여가부, 폐지 아닌 확대 필요"…정부조직개편안에 공식 반대 2시간전 5 이재명 "종북몰이·색깔론, 해방 후 친일파 행태와 다를바 없어" 1시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 11일 새벽 서울 송파구 탄천2교에서 음주측정거부로 현행범 체포돼 물의를 빚은 그룹 신화 멤버 신혜성(정필교·43)이 혐의를 인정하고 사과했다. 라이브웍스컴퍼니는 이날 오전 공식 SNS를 통해 “신혜성은 전날 오후 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 지난 5월 7일 여수의 한 아파트 주차장에서 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보 후 무참히 살해됐다. 여수 의처증 살인사건은 ‘어린 피해자의 자녀들이 상처 입을까’ 경찰이 보도 자제를 요청하 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 정진석 국민의힘 비상대책위원장이 11일 이재명 더불어민주당 대표가 한·미·일 합동 군사훈련을 반대하는 데 대해 “경박한 역사 인식으로 국민을 현혹시키지 말라”고 밝혔다. 정 비대위원장은 이날 사회관계망서비스(SNS) 재생하기 재생시간02:37 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 당뇨병 환자의 상당수는 과체중이나 비만인 경우가 많은 데요. 그런데 애초 당뇨약으로 개발됐지만, 체중 감량 효과가 커 비만 치료제로 크게 각광받는 약이 미국에서 잇달아 나오고 있습니다. 비만약으로 대박을 터뜨리게 된 5개월 영아 모텔방에 장시간 방치돼 숨져…20대 부부 입건 광주의 한 모텔방에서 5개월 된 영아가 장시간 방치돼 숨졌습니다. 오늘(11일) 광주경찰청 여성청소년범죄수사대는 아동학대범죄의처벌등에관한특례법 위반(아동학대치사) 혐의로 20대 초반 부모 A씨와 B씨를 불구속 입건해 윤 대통령 "청년들이 좌절 않게 희망의 사다리 놓아야" 윤석열 대통령은 청년들이 미래를 설계할 수 있도록 희망의 사다리를 놓아야 한다고 강조했습니다. 윤 대통령은 오늘 오전 용산 대통령실에서 열린 제45회 국무회의 모두 발언에서, "청년들의 꿈이 좌절되지 않도록 할 책임 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 지적장애인을 폭행해 살해한 후 시신을 야산에 암매장한 혐의로 중형을 선고받은 20∼30대 남성 2명이 1심 판결에 불복해 항소했다. 11일 법조계에 따르면 살인 및 사체유기 혐의로 징역 20∼30년을 선고받은 A(2 "밥 먹고 바로 샤워? No!" 식사 후 금지행동 5 건강을 위해 올바른 식습관을 갖는 건 아주 중요하다. 무엇을, 언제, 얼마나 먹을지 생각해야 하고 식사를 할 때에도 마음을 쓰며 먹는 것이 도움이 된다. 그런데 우리는 평소 무의식적으로 소화에 도움이 되지 않는 행동 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 “아이폰14 들고 롤러코스터 탔는데 소방당국서 긴급 전화 왔어요” 애플의 신제품인 아이폰14 시리즈에 탑재된 ‘충돌 감지 기능’이 실제 사고가 아닌 경우에도 인식돼 오작동하는 사례가 발견됐다. 9일(현지시간) 월스트리트저널(WSJ)에 따르면 미국 치과 의사인 사라 화이트 씨(39) "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 여성 치매는 ‘이 효소’ 때문...남성보다 2배 많은 이유 여성이 남성보다 치매 중 알츠하이머병에 약 2배 더 잘 걸리는 것은 특정 효소 때문인 것으로 밝혀졌다. 미국 케이스웨스턴대 연구팀은 생쥐와 인간의 뇌 조직에서 알츠하이머병과 관련된 차이점을 설명할 수 있는 증거를 발 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 "신혜성, 상습 음주운전…자숙 땐 억대 원정도박" 과거 재조명 그룹 신화의 신혜성이 음주 측정을 거부하다 현행범으로 체포되면서 과거 사고도 재조명되고 있다. 음주 운전 상습범이라는 지적도 나오고 있다. 신혜성은 2007년 서울 압구정동에서 삼성동까지 음주 운전을 하다 적발됐다. 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 권성동 "반일선동의 수혜자가 바로 이재명 대표…결코 법의 심판을 피할 수 없을 것" 국민의힘 권성동(강릉) 전 원내대표는 11일 "지난 며칠동안 더불어민주당은 한미일 합동 군사훈련을 두고 반일선동으로 일관했다. 반일선동의 최대 수혜자가 북한의 김정은이고, 또 다른 수혜자가 바로 이재명 대표"라고 주 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 [단독] 코레일 자회사 직원들 매일 반나절만 근무, 회사는 4년간 몰랐다 직원 6명 임의로 단축근무, 출퇴근 장부는 허위 작성 국민의힘 김학용 “公기관 근태 감시 시스템 마련 시급” 한국철도공사(코레일)의 자회사인 코레일테크 소속 일부 직원들이 4년 동안 마음대로 단축 근무를 해온 것으로 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타격땐 ‘아마겟돈’ ■ 10문10답-우크라 전쟁 230일째 美,푸틴 수뇌부 자산 동결하고 친러 외국기업인까지 제재확대 러가 우크라 외 나토국 공격땐 美 참전 불가피‘3차대전’우려 러,세계최대 규모 핵잠수함 보유 최대 120일 연속 작전 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 &lt; 코인뉴스 폭탄 투하 &gt; 코인의 기둥 유료 '화웨이식 제재'라는 것 들어보셨나요? 미스터동 왜 아이폰14 일반 모델(Non-Pro)는 왜 판매량이 별로일까? 아이폰 14 시리즈는 정말 판매가 저조할까? 위키드 투자 [10.11] HOT 이슈 &amp; 시그널 투자 신세계 [동기부여 명언] 자본주의 시장에서 돈을 벌어야 하는 우리가 알아야 할 것 책먹는여자 유료 22.10.6 삼성전자 잠정실적 발표 외환보유액 감소 원유감산 채권시장위기 대만침공? 북한 미사일 도발 경제적자유로 파닭거리기 유료 강원도에 매혹되다 - 정선 명랑한 탐구생활 유료 [LifeTips - 르브론] 가난에 쫓겨 살던 아이... 세계의 최고의 농구선수가 된 비법은? 라이프 시크릿 동영상 기사 유료 [나 돌보기]#2. 새롭게 채우기_키워드)교양 책 같은 소리 유료 경매 책 다섯 권을 읽고 나니 "경매는 어렵다"는 생각에서 조금 벗어났어요. 🙌 싱그레의 경매는 처음이라 유료 100년 역사 메리츠화재 '기업 체질 바뀌었다'는데 재무 성적표 살펴보니 thebellstock 유료 [외신속한국 BRIEF]중국-한국 반도체 펀드 나온다 혜리포터+X 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 연합뉴스 예 아니오</t>
+  </si>
+  <si>
+    <t>[뉴스체크｜경제] 유커의 귀환…제주도 단체 관광 본문 바로가기 이전 페이지 JTBC 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 JTBC 주요뉴스를 볼 수 있습니다. 보러가기 JTBC 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 저녁방송 생중계 랭킹 [뉴스체크｜경제] 유커의 귀환…제주도 단체 관광 입력2017.11.20. 오전 8:10 기사원문 황남희 기자 황남희 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 1. 도쿄보다 1억 비싼 서울집값서울의 주택 중위가격이 일본 도쿄보다 1억 원이 넘게 비싼 것으로 조사됐습니다. 중위가격은 주택 매매 가격 상 중간에 있는 주택의 가격인데요. 서울은 4억 3000여만원으로 미국 워싱턴, 뉴욕과 비슷했습니다. 또 서울에서 이 가격 수준의 주택을 마련하는 데 걸리는 시간은 9.2년으로 도쿄보다 5년 가량이 더 필요했습니다.2. 30대그룹 투자 43% 증가올해 들어서 3분기까지 국내 30대 그룹의 투자금액이 58조 원에 육박했습니다. 지난해보다 42% 정도 늘어난 것인데, 삼성그룹 투자금액이 전체의 3분의 1이상인 20조 원을 넘겼습니다. 지난해 말부터 이어진 반도체 부분 호황 때문인 것으로 분석되고 있습니다.3. 유커의 귀환…제주도 단체 관광중국 단체여행객이 8개월 만에 우리나라를 방문합니다. 상하이 단체 25명 한 팀이 다음주 제주를 찾는데요. 지난 3월 중국 당국의 한국 여행상품 판매 금지 조치가 나온 이후 첫 사례라서 유커 유치가 이제 본격화되는 것인지 시장이 주목하고 있습니다.황남희(hwang.namhee@jtbc.co.kr)▶ 라이브 시청은 유튜브로, 제보는 뉴스룸으로!▶ 스토리, 라이브, 비하인드! JTBC 소셜스토리Copyright by JTBC(http://jtbc.joins.com) and JTBC Content Hub Co., Ltd. All Rights Reserved. 무단 전재 및 재배포 금지 황남희(hwang.namhee@jtbc.co.kr) 기자 프로필 구독 구독중 황남희 기자 구독자 0 응원수 0 반갑습니다^^ JTBC 뉴스로 인사드리고 있는 황남희 앵커입니다. 카메라 저 너머에 계실 시청자 여러분들을 항상 생각하겠습니다. 어떻게 하면 잘 들리는 뉴스를 할 수 있을까 늘 고민하겠습니다. 배려하는 앵커, 함께 공감하는 앵커가 되겠습니다. JTBC 뉴스 많이 사랑해주세요! [인터뷰] 여수 주민 "태풍 '매미' 때 피해 많이 입어…주민들 대피소서 대기 예정" [인터뷰] 서귀포 주민 "거센 파도에 바닷물 온통 하얗게…마을서 대피 요령 방송" JTBC의 구독 많은 기자 JTBC 기사를 더 보고 싶다면? 구독 JTBC 언론사 구독되었습니다. 메인 뉴스판에서 JTBC 주요뉴스를 볼 수 있습니다. 보러가기 JTBC 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ JTBC. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 경제 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 구찌·아르마니도 가세했다…패션계 '반모피' 움직임 서울 집값 너무 비싸니…'이상민 1/4 하우스' 인기? [단독] 지자체 산하 공기업 채용 비리 '더 심각하다' "어려움 아니까" 포항 위해 팔 걷어부친 경주 시민들 '평창 롱패딩'이 뭐길래…중고사이트서 웃돈까지? 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 JTBC 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! JTBC 헤드라인 통일부 "北 전술핵 발사 훈련, 심각하게 주시…도발 중단해야" 통일부는 김정은 북한 국무위원장이 최근 전술핵운용부대 군사 훈련을 지휘한 데 대해 매우 심각하게 주시하고 있다는 입장을 밝히며 도발을 즉각 중단할 것을 촉구했습니다. 통일부 당국자는 오늘(11일) 기자들과 만나 "북 배달사업자 연 9천만 원 버는데…"택시 연매출 3천만 원" 택시 기사의 연간 매출액이 3000만원 수준으로 퀵·배달대행 서비스업에 종사하는 소상공인과 비교해 3분의 1 수준인 것으로 나타났습니다. 오늘(11일) 국회 산업통상자원중소벤처기업위원회 소속 구자근 국민의힘 의원이 5개월 영아 모텔방에 장시간 방치돼 숨져…20대 부부 입건 광주의 한 모텔방에서 5개월 된 영아가 장시간 방치돼 숨졌습니다. 오늘(11일) 광주경찰청 여성청소년범죄수사대는 아동학대범죄의처벌등에관한특례법 위반(아동학대치사) 혐의로 20대 초반 부모 A씨와 B씨를 불구속 입건해 재생하기 재생시간04:14 키이우 참혹…BBC 기자, 생방송 중 미사일 공격에 대피｜아침&amp; 월드 오늘(11일) 아침&amp; 월드에서는 우크라이나의 민간인 피해 상황을 조금 더 알아보겠습니다. 유미혜 기자 나와있습니다. 유 기자, 당시 긴박했던 순간들이 계속 전해지고 있지요? 러시아가 얼마나 민가 가릴 것 없이 무차별 아이폰 들고 놀이기구 탔을 뿐인데…부재중전화 잔뜩 왜? 미국의 30대 치과의사인 사라 화이트는 지난달 가족과 함께 오하이오주 신시내티에 있는 놀이공원 킹스 아일랜드를 방문했습니다. 화이트는 새로 산 아이폰14 프로를 허리에 매는 가방에 넣은 상태로 롤러코스터를 탔습니다. [단독] "ATM 부스에 개똥 버리지 마세요" 부산 도시철도 2호선 부산대양산캠퍼스역 부근 한 은행 ATM 부스에 최근 빨간 글씨의 경고문이 나붙었습니다. 산책하러 나온 일부 주민들이 ATM 부스 쓰레기통에 반려견의 배설물을 몰래 버리고 가면서 빚어진 일입니다. 이전 뉴스들 보기 3 다음 뉴스들 보기 JTBC가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 JTBC 헤드라인 더보기 통일부 "北 전술핵 발사 훈련, 심각하게 주시…도발 중단해야" 38분전 배달사업자 연 9천만 원 버는데…"택시 연매출 3천만 원" 1시간전 5개월 영아 모텔방에 장시간 방치돼 숨져…20대 부부 입건 1시간전 키이우 참혹…BBC 기자, 생방송 중 미사일 공격에 대피｜아침&amp; 월드 5시간전 재생하기 아이폰 들고 놀이기구 탔을 뿐인데…부재중전화 잔뜩 왜? 1시간전 [단독] "ATM 부스에 개똥 버리지 마세요" 1시간전 JTBC 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 키이우 참혹…BBC 기자, 생방송 중 미사일 공격에 대피｜아침&amp; 월드 5시간전 재생하기 2 아이폰 들고 놀이기구 탔을 뿐인데…부재중전화 잔뜩 왜? 1시간전 3 2900세대 전기료 잘못 깎아준 한전…환수 방법 없어 '발동동' 4시간전 재생하기 4 5개월 영아 모텔방에 장시간 방치돼 숨져…20대 부부 입건 1시간전 5 [단독] "ATM 부스에 개똥 버리지 마세요" 1시간전 1 윤 대통령, 북핵 겨냥 "핵으로 얻을 수 있는 것 아무것도 없다" 2시간전 재생하기 2 2900세대 전기료 잘못 깎아준 한전…환수 방법 없어 '발동동' 4시간전 재생하기 3 10월 1∼10일 수출 20.2% 감소…무역적자 38억달러 넘어 2시간전 4 키이우 참혹…BBC 기자, 생방송 중 미사일 공격에 대피｜아침&amp; 월드 5시간전 재생하기 5 [단독] "ATM 부스에 개똥 버리지 마세요" 1시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 “엄마 아프지 마. 사랑해”… 의처증 남편에 살해된 여성, 딸이 보낸 문자에는 MBC ‘실화탐사대’ 방송화면 갈무리. 전남 여수시의 한 아파트 주차장에서 남편이 휘두른 흉기에 수차례 찔려 사망한 피해자는 구급차에 실려가는 위급한 상황에서도 “우리 아이들은 어떡해”라며 오직 자녀들 걱정뿐이었다. 집주인이 乙됐다… 서울 역전세난, 은마도 2년전보다 싼 매물 속출 서울 아파트 전셋값이 매물 증가와 거래 감소로 약세를 보이면서 전세 시세가 2년 전 실거래 가격보다 떨어진 단지들이 속출하고 있다. 이에 집주인이 전세 재계약을 하면서 기존 세입자에게 보증금을 돌려주는 데 어려움을 "신혜성, 상습 음주운전…자숙 땐 억대 원정도박" 과거 재조명 그룹 신화의 신혜성이 음주 측정을 거부하다 현행범으로 체포되면서 과거 사고도 재조명되고 있다. 음주 운전 상습범이라는 지적도 나오고 있다. 신혜성은 2007년 서울 압구정동에서 삼성동까지 음주 운전을 하다 적발됐다. 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 지적장애인을 폭행해 살해한 후 시신을 야산에 암매장한 혐의로 중형을 선고받은 20∼30대 남성 2명이 1심 판결에 불복해 항소했다. 11일 법조계에 따르면 살인 및 사체유기 혐의로 징역 20∼30년을 선고받은 A(2 ‘윤석열차’ 숨은 그림 찾아봐…구둣발·한동훈·여가부 다 있어 고등학생이 그린 윤석열 대통령 풍자 만화 &lt;윤석열차&gt;의 ‘깨알 디테일’이 화제다. 이 그림에 대한 정부의 대응이 ‘표현의 자유’ 논란을 불러일으키면서 파장이 정치권까지 확산하자 누리꾼들이 이 그림에 꼭꼭 숨어 있는 여성 치매는 ‘이 효소’ 때문...남성보다 2배 많은 이유 여성이 남성보다 치매 중 알츠하이머병에 약 2배 더 잘 걸리는 것은 특정 효소 때문인 것으로 밝혀졌다. 미국 케이스웨스턴대 연구팀은 생쥐와 인간의 뇌 조직에서 알츠하이머병과 관련된 차이점을 설명할 수 있는 증거를 발 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 "밥 먹고 바로 샤워? No!" 식사 후 금지행동 5 건강을 위해 올바른 식습관을 갖는 건 아주 중요하다. 무엇을, 언제, 얼마나 먹을지 생각해야 하고 식사를 할 때에도 마음을 쓰며 먹는 것이 도움이 된다. 그런데 우리는 평소 무의식적으로 소화에 도움이 되지 않는 행동 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 "수육국밥 주문하려고요" 112 신고 사례 홍보에 국민들 난감 수육국밥을 주문하려고요." 지난달 20일 오후 4시 57분께 걸려 온 신고 전화다. A경사는 여성 신고자의 떨리는 목소리를 수상히 여겨 관할 경찰서에 현장 출동을 요청했고 20대 여성을 구조했다. 택시기사들이 본인 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 아이폰 들고 놀이기구 탔을 뿐인데…부재중전화 잔뜩 왜? 미국의 30대 치과의사인 사라 화이트는 지난달 가족과 함께 오하이오주 신시내티에 있는 놀이공원 킹스 아일랜드를 방문했습니다. 화이트는 새로 산 아이폰14 프로를 허리에 매는 가방에 넣은 상태로 롤러코스터를 탔습니다. 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 같은 번호판을 단 2대의 차량이 동시에 존재하는데도 경찰과 지자체가 7달째 영문도 파악하지 못했다는 지적이 나왔다. 10일 KBS는 강원 동해시에서 파란색 화물차(H사 차종)를 운행하는 임모 씨의 제보 사연을 전했다 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 윤 대통령 "청년들이 좌절 않게 희망의 사다리 놓아야" 윤석열 대통령은 청년들이 미래를 설계할 수 있도록 희망의 사다리를 놓아야 한다고 강조했습니다. 윤 대통령은 오늘 오전 용산 대통령실에서 열린 제45회 국무회의 모두 발언에서, "청년들의 꿈이 좌절되지 않도록 할 책임 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 신화 신혜성, 도난차량서 음주측정 거부하다 체포 신화의 신혜성이 음주측정을 거부하다가 체포됐다. 신씨는 도난 신고가 들어온 차량을 타고 있었다. 11일 서울 송파경찰서는 이날 오전 1시 40분께 송파구 탄천2교에서 신씨를 도로교통법상 음주측정거부, 절도 혐의로 체 “아이폰14 들고 롤러코스터 탔는데 소방당국서 긴급 전화 왔어요” 애플의 신제품인 아이폰14 시리즈에 탑재된 ‘충돌 감지 기능’이 실제 사고가 아닌 경우에도 인식돼 오작동하는 사례가 발견됐다. 9일(현지시간) 월스트리트저널(WSJ)에 따르면 미국 치과 의사인 사라 화이트 씨(39) 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 Part 2. 초보자가 알면 좋은 집짓기 용어 정리 이번 생에 단독주택은 처음이라서 유료 지금 엔터주 와이지엔터테인먼트를 사야하는 이유, 주가는? (1편) 위키드 투자 유료 27화 캘리포니아 파라다이스 영화보다 잼있는 시나리오 읽기 유료 새로움을 구하는 방법 목수일지 유료 찬반 논란 뜨거운 공매도 금지 삼프로TV 하이라이트 미국시장 weekly: No Pain, No Gain. 힘들지만 같이 공부합시다! 바바리안의 미국주식 정복기 유료 #1. 수도권 제1기 신도시 긴급 진단 : 신도시 재정비 어떻게 되나? 도시부자김사부 유료 [인사이트] 건물용 수소 연료전지 또 하나의 2차전지 패러다임 유목민의 시그널리포트 프라이탁은 어떻게 소비자를 사로잡았나 혜마케터의 브랜드 마케팅 유료 요리, 그림자 노동의 아픔을 그려내다 정여울의 살롱 드 뮤즈 유료 &lt;정직한 후보2&gt; 앙꼬없는 찐빵 shot by shot 유료 얼마만에 반등이야.. 코스피 코스닥 상승 마감 22.10.4 국내증시 마감 리뷰 경제적자유로 파닭거리기 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ JTBC 예 아니오</t>
+  </si>
+  <si>
+    <t>‘VJ 특공대’ 소개지는 어디? 순천 관광지·은퇴농장·제주도 감귤 국민 수확단·과줄·흑돼지 : 국제신문 뉴스 스포츠·연예 오피니언 동영상 뉴스 전체기사 정치 경제 사회 국제 문화 스포츠 LIFE IT/과학 그림창 주말엔 여행 근교산 맛집 오피니언 포토·동영상 포토 영상 기관뉴스 대학뉴스 전문대뉴스 행정뉴스 건강뉴스 지면보기 부산말탐구생활 로그인 ‘VJ 특공대’ 소개지는 어디? 순천 관광지·은퇴농장·제주도 감귤 국민 수확단·과줄·흑돼지 김민정 기자 inews@kookje.co.kr | 2017.11.24 23:11 24일 방송되는 KBS ‘VJ 특공대’에서는 순천 관광지, 은퇴농장, 제주도 감귤 국민 수확단, 과줄, 흑돼지 등이 소개된다.▶VJ가 되어주세요 순천(사진=KBS) 나만의 특별한 이야기를 전하는 ‘vj가 되어주세요’. 이번에는 도시 전체가 정원이라 불리는 전라남도 순천으로 간다. 순천의 절경을 감상하려면 하늘을 달려라? 지상 10m 위에 설치된 사각형 모향의 택시를 타고 달리다보면 국내 최대 갈대밭과 마주하게 된다. 눈 닿는 곳마다 펼쳐지는 황금빛 물결. 바람에 흩날리는 갈대를 보고 있자면 그 시간만큼은 세상 시름을 잊게 된다. 순천 여행길에 이곳을 들르면 시간의 흐름도 잊을 수 있다? 조선시대의 모습을 고스란히 간직한 곳, 낙안읍성. 70여개의 초가집들이 마치 과거로 떠나온 것만 같은 착각이 드는데... 주민들은 초가지붕을 보수하느라 여념이 없다 . 여름내 습기를 머금어 느슨해진 지붕을 내리고, 겨울바람을 견딜 새 지붕을 올려야한다. 볏짚을 엮어 지붕을 만드는 주민들은 물론 초가집에서 하룻밤을 보내는 60대 네 자매의 이야기까지 늦가을 200% 만끽 할 수 있는 순천. 그곳에서 만난 사람들의 특별한 이야기를 VJ 카메라에 담는다.▶백발의 하숙생들 (사진=KBS) 홍성의 어느 산자락. 이곳에 자녀들로부터 독립을 선언한 백발의 어르신들이 모여들었다. 도시에서 은퇴를 하고 전원생활을 즐기고 싶은 어르신들이 사는 곳. 은퇴농장이다. 최고령인 이문민 (93) 할아버지부터 작업반장 김기태(87) 할아버지, 막내인 임광빈(66) 할아버지까지. 총 9명의 어르신은 모두 농장 한편에 마련된 건물에 각자의 방을 얻어 산다. 이곳에서 ‘왕할아버지’라고도 불리는 이문민 할아버지는 오늘도 부지런히 소일거리를 하러 집을 나선다. 은퇴 농장에서 수확한 열무나 파를 포장하는 일이 할아버지의 주 업무. 큰돈을 벌겠다는 욕심은 없다. 그저 저녁에 친구들과 마실 막걸리 한 병 값이면 족하다는 할아버지. 농장에서 놀고 또 쉬면서 일을 한다. 할아버지는 해가 지면 막걸리 한 잔 기울일 친구들이 있는 이곳이 꽤나 마음에 든다. 은퇴농장의 막내 임광빈 할아버지는 5년 전 뇌종양으로 아내를 잃고 우울증에 시달렸었다. 하지만 이곳에서 와서 소일거리를 하고 이웃과 함께 지내며 예전의 장난기 어린 미소를 되찾았다. 오늘은 새로운 강아지를 분양받기로 한 날이다. 새로운 가족을 맞이할 준비에 임광빈 할아버지는 설렘을 감추지 못한다. 자식들에게 기대고 싶지 않아 이곳을 찾았다는 안연환 할머니. 거울보기가 취미다. 농장일이 끝나면 매일같이 거울을 보고 꽃단장을 한다. 그러고 나서는 곳이 동네 산책. 오늘 산책길에서는 들꽃을 만났다.▶특공 작전 숨은 맛집을 찾아라-양구(사진=KBS) 지금이야 서울에서 넉넉잡아 3시간이면 갈수 있게 됐지만, 서울춘천고속도로가 생기기 전까지 꼬불꼬불 산길을 넘어야 갈 수 있었던 탓에 오지로 쳤던 양구. 때문에 정겨운 산골의 정취가 가득한데. 이곳에 방송에 나오지 않은 진짜 맛집을 찾아 VJ가 떴다. 양구에 도착하자마자 VJ 카메라에 포착된 풍경이 있었으니 시래기 덕장이다. 주민들은 시래기를 말리느라 바쁜 와중에도 입에 침이 마르게 양구 시래기 자랑에 여념이 없다. 지역 특성상 일교차가 극심하다보니 시래기를 널어놓으면 따뜻한 낮에는 영양분을 잔뜩 만들어내고 밤에는 하도 추워서 그 영양분을 소비하지 못한단다. 그래서 양구 시래기가 영양도 만점, 맛도 만점이라나? 그리하여 소개받은 시래기 전문점. 시래기와 소고기를 황금 비율로 넣고 된장으로 양념한 시래기불고기 전골이 한상 차려지는데. 과연 방송에 나오지 않은 맛집일까?▶제주 감귤 대소동(사진=KBS) 제주도는 지금 감귤 풍년 새벽부터 저녁까지, 주말도 없다. 따도 따도 끝이 없는 귤 수확. 감귤은 넘쳐나고 인력은 부족한 상황. 이에 제주도가 특단의 조치를 내렸다. 전국 각지에서 국민 수확단을 모집한 것. 항공권도 숙박권도 무료. 심지어 관광까지 시켜주고, 두둑하게 일당까지 챙겨준다. 이 달콤한 소식에 육지의 일반인들도, 가을 추수를 마치고 농한기에 접어든 태백의 농민들도 제주도로 모여들었다. 국민 수확단의 한 달에 걸친 귤 따기 현장 과연, 어떤 일들이 벌어질까? 한편, 감귤 수확철에는 주스 공장도 눈코 뜰 새 없이 바쁘다. 이 겨울이 다 가기 전에 1년 치 주스를 만들어야 한다는 사장님. 지금이 감귤의 당도가 가장 높은 시기기 때문이란다. 매일같이 60톤의 귤의 껍질을 깎고, 착즙하면 새콤달콤한 맛있는 감귤 주스 완성. 그런가 하면 비상품 귤은 서귀포의 한 과줄 농장으로 모인다. 할머니의 할머니 때부터 내려오는 전통방식을 고수하고 있다 보니 모든 일은 손으로 일일이 한다. 한 사람이 하루에 까는 감귤 양은 무려 300kg. 도구는 숟가락 하나. 필요한건 손목 힘? 숙련된 솜씨로 껍질을 까고 나면, 알맹이는 따로 모아 푹 끓여주는데. 눌러 붙지 않게 수시로 저어줘야 하기 때문에 잠시도 눈을 뗄 수 없다. 남편 밥 차려줄 시간도 없이 과줄을 만든다는 제주도 토박이들의 작업 대 공개. 또, 감귤을 먹이는 흑돼지 농장과 감귤즙을 발라 맛을 낸 감귤 흑돼지 구이 음식점까지. 제주도 감귤 대소동의 현장을 VJ 카메라에 담아본다.이하 소개지 정보〈VJ가 되어주세요 순천〉▶스카이큐브(전라남도 순천시 오천동 720-26)▶ 순천만습지(전라남도 순천시 순천만길 513-25)▶ 들마루(전라남도 순천시 순천만길 496 들마루)▶ 낙안읍성(전라남도 순천시 낙안면 충민길 30 관사)▶ 이방집민박(전라남도 순천시 낙안면 충민길 33-1)〈백발의 하숙생들〉▶은퇴농장 입주(홍성 은퇴농장사람들)〈특공 작전 숨은 맛집을 찾아라 -양구〉▶백토미가(강원 양구군 방산면 장거리길 17)▶정주골(강원 양구군 해안면 땅굴로 11-3)▶ DMZ펀치볼손덕수산채농장(강원도 양구군 해안면 땅굴로 12-30)〈제주 감귤 대소동〉▶감귤 수확단(제주농협본부-올해 감귤 수확단 모집은 마감되었습니다)▶귤하르방 주스(제주시 게원 2길 36)▶신효귤향과줄(제주특별자치도 서귀포시 신효동 876번지)▶큰별농장(제주시 한경면 용수리 565)▶흑돈오리(제주 서귀포시 이중섭로 5-5)김민정 기자(사진=KBS)ⓒ국제신문(www.kookje.co.kr), 무단 전재 및 재배포 금지 관련기사 돌아온 아이돌 체전부터 골든벨·최신영화까지 ‘골라보는 재미’ 최수종 지구위기 담은 다큐 ‘이것이 야생이다’ 2일 첫방 창업 도전기…문화유산…KNN 지역밀착 봄 개편 화려한 쇼호스트 세계 그린 ‘킬힐’ 첫 선 여성 스타들 컬링 맞대결…송해 파란만장한 삶 그린 악극도 국제신문 카카오플러스 친구 국제신문 공식 페이스북  인스타그램 ‘수리남’의 하정우 우영우, 상 받았다 배꼽 빼러 돌아온 ‘코믹 퀸’, 사회 비리에 사이다 날리다 엑소 시우민, 솔로 데뷔로 터닝 포인트 블랙핑크, K팝 걸그룹 최초 ‘빌보드 200’ 정상 등극 ‘원아페’ 콘서트, 엑소 카이·걸크러쉬 (여자)아이들 합류 “첫 뮤지컬 영화 도전…지금까지 이런 귀여움은 없었다” str_tit8 str_tit9 ‘수리남’의 하정우0 [많이 본 뉴스] 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 3‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 4"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 5“아미 떴다” 달아오른 부산 관광·유통업계 6부산 아파트 매매량 10년 만에 최저 7[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 8디자인진흥원이 키운 육아앱, 5억 투자 낳았다 9이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 10정부, “2025년까지 HMM 민영화 완료” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 최원준의 음식 사람 &lt;66&gt; 백두대간 송이버섯 &lt;65&gt; 여름 백사장 잡어 삼총사 ■ 푸틴 “우크라이나 자포리자 원전 국유화” ■ 부산록페 3년 만에 찾았는데…휴대폰·음향 먹통에 분통만 ■ “부울경 더 강력한 특별연합 형태로 메가시티 결성을” ■ 근무복 입고 식당서 소주 한 병…부산교통공사 직원 2명 징계 의결 ■ 하동군 국내 최대 ‘성혈’, 학술가치 높아 보존추진 ■ 우크라이나 점령지 러시아 합병…푸틴, 서명으로 공식화 ■ 김해, 낙동강권 지자체 상생모델 만든다 ■ 놀이마루에 교육청? 학생·시민공간 대안 논의는 없었다 ■ 현대백화점, 에코델타시티 유통부지 매입…아울렛 서나 스포츠 + 20살 김주형 PGA 2승 달성…‘골프 황제’ 우즈보다 빨랐다 김하성, 한국 빅리거 첫 PS 도루…샌디에이고 NLDS행 견인 ‘포스트 장미란’ 김수현 용상 한국 신기록 번쩍 ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 “조선의 4번 타자 눈물을 닦아요” 사직벌 울음바다 울산·경남 소식 연탄 제조· 국제결혼 지원…경남도, 유명무실 조례 30건 손본다 통영시, 내년 경남도민체전 상징물 공모 나서 산청한방약초축제 11일간의 화려한 축제 막 내려 '다시 일상으로 함께하는 도서관' 창원서 전국 도서관인 축제 '임진왜란 3대 대첩 도시' 진주·고양·통영시 문화 교류 첫발 근교산 근교산&amp;그너머…울산 무학산 둘레길 주말엔&amp;라이프 억 소리 나는 작품도 패들 번쩍…‘초록 호박’ 22초 만에 1억 여원 껑충 국제신문 PC버전트위터페이스북 Copyright ⓒ 2015 All rights reserved by 국제신문</t>
+  </si>
+  <si>
+    <t>제주도, 일본인 관광객 유치 팔 걷었다 본문 바로가기 이전 페이지 국민일보 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 국민일보 주요뉴스를 볼 수 있습니다. 보러가기 국민일보 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 제주도, 일본인 관광객 유치 팔 걷었다 입력2017.11.20. 오후 5:44 기사원문 주미령 기자 주미령 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주를 찾는 일본인 관광객이 증가세로 돌아선 가운데 제주도가 일본인 관광객 유치를 위한 총력전에 나섰다. 제주도·제주관광공사는 연말 제주여행 수요를 늘리고, 내년 봄 상품 기획을 위해 20∼21일 오사카지역 주요 여행사·항공사로 구성된 ‘오사카마케팅위원회’를 대상으로 제주관광 설명회와 관광세일즈를 진행한다고 밝혔다. 공사는 20일 오사카지역 관광업계 관계자들과 간담회를 갖고, 21일에는 제주 직항노선 취항 항공사와 공동 프로모션을 논의한다. 오사카지역은 현재 대한항공(4회)과 티웨이항공(7회)이 주 11회 직항노선을 운항하고 있다. 공사는 설명회에서 제주신화월드 등 신규 콘텐츠를 소개하는 한편 시내버스 체계 개편, 무료 와이파이 제공 등 스마트 안전관광 인프라를 홍보한다. 일본인 젊은 여성층을 겨냥한 테마상품 개발과 SNS를 통한 개별관광객 대상 온라인 프로모션도 제안한다. 공사는 연말까지 일본 매체를 활용한 홍보활동을 전개하고 직항노선 온라인 프로모션도 실시한다. 제주관광공사 관계자는 “현지 업계와의 파트너십을 강화하고, 다양한 테마상품을 지속적으로 개발·홍보해 나갈 계획”이라고 밝혔다. 10월말 기준 제주를 찾은 일본인 관광객은 4만7000명으로 지난해보다 10.7% 증가했다. 제주=주미령 기자 lalijoo@kmib.co.kr[국민일보 홈페이지] [페이스북][취재대행소 왱!(클릭)]GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 재배포금지 제주=주미령 기자 기자 프로필 구독 구독중 주미령 기자 구독자 0 응원수 0 제주도 지역을 담당합니다. 언론학 석사. 방송이론 �G 방송프로그램 사회학. 지역언론 보도 태풍 ‘레끼마’ 영향.....제주, 주말 항공기·선박 운항 차질 전 남편 살해 고유정 “아들 친권은 절대 포기 못한다” 국민일보의 구독 많은 기자 국민일보 기사를 더 보고 싶다면? 구독 국민일보 언론사 구독되었습니다. 메인 뉴스판에서 국민일보 주요뉴스를 볼 수 있습니다. 보러가기 국민일보 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ 국민일보. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 기독교 원로목사 "류여해 무당인가 했다… 최고위원아닌 최저위원" "포항 지진으로 땅 3~6㎝ 이동"…"지반 약했기 때문" 'AI 방역 보다 의원 사진이 우선'…차단막 들어간 관계자 "호주 남자 어린이 수면제 먹이고 성폭행"… 워마드 글 논란 '수능 중 지진나면 이렇게' 교육부가 발표한 단계별 행동 요령 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 국민일보 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 국민일보 헤드라인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 윤석열 대통령은 11일 “청년들이 임대주택과 현금을 그냥 쥐여줄 것이 아니라 내 집 마련과 자산형성을 할 수 있도록 도와야 한다”고 말했다. 윤 대통령은 이날 오전 용산 대통령실 청사에서 열린 제45회 국무회의 모두 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 성 상납 의혹 관련 무고 및 증거인멸교사 혐의를 받는 이준석 전 국민의힘 대표가 2차 경찰 조사를 받았다. 경찰은 수사 마무리 단계인 만큼 조만간 결론을 낸다는 입장이다. 11일 서울경찰청 기자간담회에서 서울경찰청 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 전국 38만여가구가 집을 비롯해 전 재산을 다 팔아도 빚을 갚지 못하는 ‘고위험’ 상황인 것으로 나타났다. 고위험 가구가 진 빚은 전체 금융 부채의 6%를 넘는 69조원에 이른다. 미국이 돈줄을 강하게 죄면서 시중 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 이재명 더불어민주당 대표는 11일 한·미·일 동해 합동훈련에 대해 옹호하는 국민의힘을 향해 “해방 이후 친일파가 했던 행태와 다를 바가 전혀 없다”고 강하게 비판했다. 이 대표는 이날 국회에서 긴급 안보대책회의를 열 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 러시아가 크림대교 폭발 사고 이후 이틀 만인 지난 10일(현지시간) 우크라이나 수도 키이우 등 주요 도시에 미사일 공격을 퍼부은 가운데 공습 당시 다리를 건너다 가까스로 목숨을 건진 시민의 모습이 포착됐다. 10일 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 11일 새벽 서울 송파구 탄천2교에서 음주측정거부로 현행범 체포돼 물의를 빚은 그룹 신화 멤버 신혜성(정필교·43)이 혐의를 인정하고 사과했다. 라이브웍스컴퍼니는 이날 오전 공식 SNS를 통해 “신혜성은 전날 오후 이전 뉴스들 보기 3 다음 뉴스들 보기 국민일보가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 국민일보 헤드라인 더보기 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 1시간전 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 9분전 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 12시간전 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 1시간전 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 1시간전 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 2시간전 국민일보 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 2시간전 2 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 1시간전 3 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 4시간전 4 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 6시간전 5 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 12시간전 1 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 12시간전 2 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 4시간전 3 ‘尹퇴진’ 집회 간 野김용민… “5년 못 채우게 해야” 4시간전 4 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 6시간전 5 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] 8시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 윤 대통령 "청년들이 좌절 않게 희망의 사다리 놓아야" 윤석열 대통령은 청년들이 미래를 설계할 수 있도록 희망의 사다리를 놓아야 한다고 강조했습니다. 윤 대통령은 오늘 오전 용산 대통령실에서 열린 제45회 국무회의 모두 발언에서, "청년들의 꿈이 좌절되지 않도록 할 책임 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 5개월 영아 모텔방에 장시간 방치돼 숨져…20대 부부 입건 광주의 한 모텔방에서 5개월 된 영아가 장시간 방치돼 숨졌습니다. 오늘(11일) 광주경찰청 여성청소년범죄수사대는 아동학대범죄의처벌등에관한특례법 위반(아동학대치사) 혐의로 20대 초반 부모 A씨와 B씨를 불구속 입건해 “여보, 대출이 왜 안나오지?” 금리오르자 1년새 아파트 대출 1억 줄었다[기준금리 3% 시대] “월급도 올랐는데, 대출한도는 왜 줄어든 건가요?” 대기업에 다니는 40대 직장인 A씨는 최근 마이너스 통장 만기가 다 돼 연장하는 과정에서 금리는 4%대에서 6.1%로, 한도는 5000만원에서 4000만원으로 줄었 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 러시아가 크림대교 폭발 사고 이후 이틀 만인 지난 10일(현지시간) 우크라이나 수도 키이우 등 주요 도시에 미사일 공격을 퍼부은 가운데 공습 당시 다리를 건너다 가까스로 목숨을 건진 시민의 모습이 포착됐다. 10일 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 “여보세요. 어머니, 어머니… 어머니, 저 모르겠어요. 여기가 어딘지 모르겠어요." 지난 9월 29일 새벽 4시를 훌쩍 넘긴 야심한 시각. 울산경찰청 112 신고로 한 소년이 전화해 대뜸 ‘어머니’를 연신 애타게 찾 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 [단독] 코레일 자회사 직원들 매일 반나절만 근무, 회사는 4년간 몰랐다 직원 6명 임의로 단축근무, 출퇴근 장부는 허위 작성 국민의힘 김학용 “公기관 근태 감시 시스템 마련 시급” 한국철도공사(코레일)의 자회사인 코레일테크 소속 일부 직원들이 4년 동안 마음대로 단축 근무를 해온 것으로 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타격땐 ‘아마겟돈’ ■ 10문10답-우크라 전쟁 230일째 美,푸틴 수뇌부 자산 동결하고 친러 외국기업인까지 제재확대 러가 우크라 외 나토국 공격땐 美 참전 불가피‘3차대전’우려 러,세계최대 규모 핵잠수함 보유 최대 120일 연속 작전 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 "수육국밥 주문하려고요" 112 신고 사례 홍보에 국민들 난감 수육국밥을 주문하려고요." 지난달 20일 오후 4시 57분께 걸려 온 신고 전화다. A경사는 여성 신고자의 떨리는 목소리를 수상히 여겨 관할 경찰서에 현장 출동을 요청했고 20대 여성을 구조했다. 택시기사들이 본인 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? “카카오 때문에 화병 나겠습니다. 부부싸움까지 했어요. 1억원 넘게 손실인데 와이프가 이제라도 팔라고 하네요. 조만간 오르겠지 기대하고 안 팔고 버텼는데 이 지경이 됐으니….”(카카오 투자자) “지하까지 내려온 줄 권성동 "반일선동의 수혜자가 바로 이재명 대표…결코 법의 심판을 피할 수 없을 것" 국민의힘 권성동(강릉) 전 원내대표는 11일 "지난 며칠동안 더불어민주당은 한미일 합동 군사훈련을 두고 반일선동으로 일관했다. 반일선동의 최대 수혜자가 북한의 김정은이고, 또 다른 수혜자가 바로 이재명 대표"라고 주 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 “아이폰14 들고 롤러코스터 탔는데 소방당국서 긴급 전화 왔어요” 애플의 신제품인 아이폰14 시리즈에 탑재된 ‘충돌 감지 기능’이 실제 사고가 아닌 경우에도 인식돼 오작동하는 사례가 발견됐다. 9일(현지시간) 월스트리트저널(WSJ)에 따르면 미국 치과 의사인 사라 화이트 씨(39) "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 지적장애인을 폭행해 살해한 후 시신을 야산에 암매장한 혐의로 중형을 선고받은 20∼30대 남성 2명이 1심 판결에 불복해 항소했다. 11일 법조계에 따르면 살인 및 사체유기 혐의로 징역 20∼30년을 선고받은 A(2 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 재생하기 재생시간04:32 [현장영상+] 尹, 국무회의 주재..."전 정부 폐지한 학업성취도 전수평가 실시" 윤석열 대통령이 지난 정부에서 폐지했던 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하겠다고 발표했습니다. 줄 세우기라는 비판 뒤에 숨어 교육을 방치한다면 대한민국의 미래도 어두워질 것이라고 강조했는데 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 Part 2. 초보자가 알면 좋은 집짓기 용어 정리 이번 생에 단독주택은 처음이라서 유료 지금 엔터주 와이지엔터테인먼트를 사야하는 이유, 주가는? (1편) 위키드 투자 유료 27화 캘리포니아 파라다이스 영화보다 잼있는 시나리오 읽기 유료 새로움을 구하는 방법 목수일지 유료 찬반 논란 뜨거운 공매도 금지 삼프로TV 하이라이트 미국시장 weekly: No Pain, No Gain. 힘들지만 같이 공부합시다! 바바리안의 미국주식 정복기 유료 #1. 수도권 제1기 신도시 긴급 진단 : 신도시 재정비 어떻게 되나? 도시부자김사부 유료 [인사이트] 건물용 수소 연료전지 또 하나의 2차전지 패러다임 유목민의 시그널리포트 프라이탁은 어떻게 소비자를 사로잡았나 혜마케터의 브랜드 마케팅 유료 요리, 그림자 노동의 아픔을 그려내다 정여울의 살롱 드 뮤즈 유료 &lt;정직한 후보2&gt; 앙꼬없는 찐빵 shot by shot 유료 얼마만에 반등이야.. 코스피 코스닥 상승 마감 22.10.4 국내증시 마감 리뷰 경제적자유로 파닭거리기 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 국민일보 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도관광협회-나가사키국제관광컨벤션협회 협력 마케팅 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회-나가사키국제관광컨벤션협회 협력 마케팅 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회-나가사키국제관광컨벤션협회 협력 마케팅 정용기 기자 승인 2017.11.21 15:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 지난 17~20일까지 일본을 방문해 나가사키국제관광컨벤션협회(회장 카와조에 카즈미)와 레저스포츠 관광객 유치를 위한 비즈니스 마케팅을 진행했다.  정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 여행객들 꼭 들르는 서귀포 중문관광단지, 흑돼지 맛집 탐방도 필수 코스 &lt; 여행문화 &lt; 컬처Life &lt; 기사본문 - 뉴스컬처 (NEWSCULTURE) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:04 (화) 제보 이슈모아보기 로그인 전체메뉴 버튼 연예 공연·전시 이슈 포토·영상 컬처Life 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 검색버튼 기사검색 검색 인기뉴스 '스트릿 맨 파이터' 심사 논란 보아, 끝없는 악플에 지친 심경 토로[뉴스컬처★] [인터뷰]'환승연애2' PD "욕먹는 출연자 이해될 날 있을 것" 제니 '열애설' 뷔, 데이트 때 이 정도는 입어야 못 알아봐[뉴스컬처★] '해피니스' 한효주X박형식, 샤넬 행사에서 재회한 선남선녀[뉴스컬처★] 제주도 떠난 '환승연애2'…뒤늦게 진심 깨닫고 혼란 박민영 열애설 입장 유보 "촬영으로 확인 늦어져" '아이유 콘서트'에서 포착된 방탄소년단 정국···찐팬심 드러나는 올콘 목격담[뉴스컬처★] '백패커' 안보현, 백종원 공항에서 우연히 마주치는 사이[뉴스컬처★] 이달소 츄, 개인 인스타그램 개설...납득 가는 이유[뉴스컬처★] '아이돌의 재발견' 드라마·영화에서 연기력 인정받으며 배우로 승승장구[뉴스컬처★] naver post kakao twitter youtube instagram 본문영역 이전 기사보기 다음 기사보기 제주도 여행객들 꼭 들르는 서귀포 중문관광단지, 흑돼지 맛집 탐방도 필수 코스 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 컬처Life 여행문화 제주도 여행객들 꼭 들르는 서귀포 중문관광단지, 흑돼지 맛집 탐방도 필수 코스 기자명 이정형 기자 입력 2017.11.22 03:58 수정 2018.09.20 14:32 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 푸른 느낌으로 가슴을 설레게 하는 낭만 여행지를 꼽으라면 제주도를 빼놓을 수 없다. 사시사철 많은 관광객이 몰리는 제주도는 근처 섬을 포함해 그 자체로 관광명소이다. 이러한 제주도 여행 코스를 잡을 때는 공항을 기점으로 서귀포시 중문을 거쳐 다시 공항 근처로 연결하는 경우가 많으며, 필수로 거치는 곳이 중문 관광단지다. 제주도 서귀포시 중문관광단지는 용두암, 천제연폭포 등 관광지를 비롯해 여미지식물원, 해양수족관, 민속마을 등 다양한 체험 관광지를 둘러보는 즐거움이 있다. 호텔, 콘도, 펜션 등 숙박시설과 레저스포츠 및 편의시설 등 여행 인프라도 잘 구축되어 있다. " src="/news/photo/201711/76245_132993_425.png"/&gt; 제주곰집에서는 연탄으로 초벌한 다음 흑돼지고기를 내놓는다. 초벌 시 제주곰집만의 특제 소스를 발라 잡내를 없애며 기름이 빠져 식감이 더 쫀득하고 부드러워진다. 또한 육즙이 안에 가득 차고 은은한 연기 향이 배여 풍미를 더해준다. 흑돼지와 함께 전복, 새우를 함께 맛볼 수 있는 모둠 흑돼지는 제주도 서귀포 흑돼지 맛집 인기 메뉴. 직접 담근 된장으로 끓인 구수한 찌개와 김치찌개, 해물이 푸짐하게 들어간 해물우동 같은 사이드메뉴도 별미로 추천할만하다.  [뉴스컬처 360VR] [뉴스컬처 연예TV] [네이버 포스트] 이정형 기자 father6314@naver.com&lt;저작권자ⓒ뉴스컬처 무단전재 및 재배포 금지&gt; 저작권자 © 뉴스컬처 (NEWSCULTURE) 무단전재 및 재배포 금지 키워드 Tags #제주곰집 이정형 기자 father6314@naver.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 빈지노, 브루클린의 자유로운 감성(화보) 아이유, 가을의 고혹미(화보) 아이유X손석구, 겨울을 준비하는 커플(화보) 뉴진스, 생기 넘치는 소녀들(화보) 최수영, 의류 모델 발탁될만한 비율(화보) 정호연, 모델 출신의 능수능란 포즈(화보) 인기뉴스 1 '비밀남녀' 미켈 비밀 힌트 공개 "끝이 정해져 있다" 2 '아일랜드' 악에 대항하는 김남길·이다희·차은우·성준 3 '나는 SOLO' 10기 커플 탄생 목격한 3MC의 경악 4 이제훈, 남궁민 드라마에 또 등장 5 [인터뷰①]'브론테' 강지혜·이봄소리·허혜진 "내가 아니면 질투날 것 같은 극" 포토뉴스 [포토]‘인간 디올’ 블랙핑크 지수, 넘사벽 비주얼의 매력 뉴진스, 핫한 패션 아이콘(화보) NCT 쇼타로X성찬, 클래식 무드(화보) [NC포토]'브론테' 송영미, 투명함 머금고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로 309 (삼성제일빌딩) 12F 대표전화 : 02-557-5321 팩스 : 02-557-5322 청소년보호책임자 : 신명근 법인명 : (주)케이뉴스 제호 : 뉴스컬처 (NEWSCULTURE) 등록번호 : 서울,아02083 등록일 : 2012-04-19 발행일 : 2012-04-19 발행·편집인 : 신명근 뉴스컬처 (NEWSCULTURE) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스컬처 (NEWSCULTURE). All rights reserved. mail to newsculture@knewscorp.co.kr 위로 전체메뉴 전체기사 연예 공연·전시 이슈 포토·영상 컬처Life 전체 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 알림 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>관광객수 기준 인프라 늘리자는 제주도 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 관광객수 기준 인프라 늘리자는 제주도 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 관광객수 기준 인프라 늘리자는 제주도 기자명 최병근 기자 입력 2017.11.22 11:25 수정 2017.11.23 17:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 김태석 의원, “섬이 갖는 인문·사회·생태학적 수용능력 먼저 파악”이승찬 국장, “총량제 개념보다 기반시설 확충...첫 연구라 어려워” [제주도민일보 DB] 김태석 제주도의회 의원.제주도가 2030년 예상 관광객 수에 맞게 인프라를 확장 하겠다고 밝히자, 김태석 의원이 이승찬 관광국장에게 “무책임하다. 관광객이 무한정 늘어나면 인프라도 그만큼 늘어나야 한다. 그러면 환경도 자연스레 파괴된다”며 강하게 비판하고 나섰다.김태석 제주도의회 의원은 22일 제356회 2차 정례회 문화관광스포츠위원회 회의에서 이 같이 비판했다.김태석 의원은 “2030년 제주도에 4000만명이 들어온다고 하면 이에 맞는 인프라를 만든다는 것인가. 그러면 작년 연구용역 취지가 틀리다. 엉터리로 가고 있다”며 “섬이 갖고 있는 인문, 사회, 생태학적 수용능력을 먼저 파악하고 그 다음에 적정 관광객 수를 파악하는게 목적이었다”고 짚었다.이승찬 국장은 이에 “현 상황에서 관광객이 포화상태다. 앞으로 관광객 총량제를 해야 할 것 아니냐는 주문이 있었다”며 “그렇기 때문에 총량제 개념보다 기반시설을 확충하고 있다”고 말했다.김 의원은 이승찬 국장 대답에 “관광객 수요에 맞춘 인프라는 무한히 늘어날 수 있고 축소될 수 있다. 변동이 심하다”며 “경기에 민감한게 관광이다. 사드, 메르스는 언제든지 발생할 수 있다. 근데 관광객 수를 최고치로 판단해서 추진한다면 인프라를 무한히 늘려야 한다”고 지적했다.이승찬 국장이 김태석 의원 지적에 “의원님 말씀 맞다”고 동의하자 김 의원은 “국장님, 무책임한거 아니냐. 관광객이 들어오는대로 수용해야 한다? 그럼 중산간은 더 파헤쳐야 하고, 길은 더 넓혀야 할 것이다. 한계비용을 추정해야 할 것 아니냐”고 추궁했다.이승찬 국장은 “처음하는 연구용역이라 어렵다”고 해명했다.김태석 의원은 “전 세계적으로 수용력을 학술적으로 조사한 곳은 별로 없다. 근데 관광객 수에 맞춘 인프라는 상당히 위험하다”고 전제하며 “제주도가 해결해야 할 가장 시급한 사안은 환경보호 분야라고 여론조사 결과도 나왔다. 도민여론과 거꾸로 간다면 정책 수립이 잘못된 것”이라고 비판했다.이승찬 국장은 “환경보전에도 역점을 두고 하고 있다. 역행하지 않는다”고 맞섰다.김 의원은 “관광객이 들어오는 만큼 인프라를 확장하겠다는 것은 기존 도로를 만들겠다는 것이고,모든 시설을 늘리겠다는 것”이라며 “중간보고용역에서는 (최종결론은 아니지만) 1900만명이 넘어가면 제주도가 오히려 손해라는 내용도 나왔다. 관광객이 들어 올 수록 도민 삶의 질은 떨어진다는 한국은행 제주본부 연구결과도 나왔다. 이는 도민들도 관광객이 삶의 질을 높이는데 체감하지 못하고 있다는 지적”이라고 주장했다.이승찬 국장은 “(수용력 결론을 만드는 부분에)깊은 고민을 하겠다”고 답하자 김 의원은 교과서적 답변을 요구한건 아니다. 섬이 갖는 한계를 연구해 달라”고 재차 당부했다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 현장체험 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 등반동호회, 현장체험 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 등반동호회, 현장체험 실시 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2017.11.20 18:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 등반동호회(회장 고철원)는 지난 18일 제주도내 관광사업체 대표, 임원 및 종사자 등으로 구성된 회원 100여명과 함께 금오름을 탐방하고 제주신화월드 테마파크를 관람했다.이번 행사는 현장체험을 통해 제주관광상품을 개발하고 제주도내 관광업종 간 상호 네트워크를 구축하기 위해 진행됐다.등반동호회 관계자는 "앞으로도 제주도내 관광자원 현장체험을 통해 제주의 다양한 관광상품을 개발 및 촉진하고 관광으로 만들어가는 희망찬 제주를 만들기 위해 적극 앞장서 나갈 것"이라고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>영천와인, 제주도 관광지에서 홍보행사 가져 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 영천와인, 제주도 관광지에서 홍보행사 가져 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 영천와인, 제주도 관광지에서 홍보행사 가져 기자정보, 기사등록일 (영천) 최주호 기자 입력 2017-11-13 16:50 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 영천시가 제주도 관광지에서 영천와인 홍보행사를 진행하고 있다. [사진=영천시 제공] 국내 최대 포도 주산지를 기반으로 전국 최대 와인생산(27만병/년)지로 성장한 경북 영천시가 제주도 관광지에서 영천와인 홍보행사를 가졌다. 13일 영천시에 따르면 지난 10~11일까지 양일 간 진행된 영천와인 홍보행사는 제주도 유명 관광지인 한림공원(한림읍 협재리)에서 영천와인 무료시음과 함께 전국 각지는 물론 해외에서 제주를 찾은 여행객들에게 영천와인을 홍보했다. 이번 행사에는 영천의 18개 와이너리 중 12개 와이너리가 직접 참여해 관광객들에게 각 와이너리의 특징과 포도 재배부터 와인이 생산된 과정까지 설명하며 영천에서 생산된 와인에 대한 신뢰를 주었다. 특히 일반 관광객을 대상으로 한 홍보와 제주도내 관광업 관계자를 대상으로 한 홍보가 별도로 진행됐다. 호텔 및 대학 관광학과, 식음료, 관광업 등 관련 종사자 70여명을 초청해 영천와인의 우수성을 홍보하고 제주 관광업계와의 교류, 판로 개척 및 협력 사업을 모색하는 시간을 가졌다.관련기사조삼열씨 '2022년도 영천시 자랑스러운 시민상'수상자 선정영천시, 육군3사관학교와 함께하는 '영천전투 바로알기' 특강 실시 김선주 영천시 농업기술센터소장은 “이번 홍보행사를 통해 영천와인의 우수성을 전국에 알리고 다가갈 수 있는 계기가 될 것으로 기대된다”며, “앞으로 영천시는 전국으로 지역 와인 홍보행사를 확대함으로써 국내 어디서나 영천와인을 쉽게 만나고 소비할 수 있도록 만들어 나가겠다”고 밝혔다. #영천시 #제주도 #영천와인 #농업기술센터 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 6'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 2尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5김두관 의원 "코레일 근무태만 천태만상 심각" 6​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4신화 신혜성, 도난차량서 음주측정 거부로 체포 5대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 6강원도관광재단, 전국 최초 워케이션 상담회 개최 7前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>중문호텔에서 만끽하는 겨울, 제주도 관광의 중심 히든호텔에서 매력 만끽 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 중문호텔에서 만끽하는 겨울, 제주도 관광의 중심 히든호텔에서 매력 만끽 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 중문호텔에서 만끽하는 겨울, 제주도 관광의 중심 히든호텔에서 매력 만끽 유지형 승인 2017.11.24 17:26 수정 2017.11.24 17:26 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × 언제, 누구와 떠나도 좋은 제주지만 그 매력을 제대로 알고 간다면 즐거움은 두 배가 될 것이다. 이에 제주관광공사에서는 '제주의 겨울은 낭만'이라는 주제로 12월, 놓치지 말아야 할 제주 관광 추천 10선을 발표했다.그중에는 제주를 대표하는 국내 최대 규모의 종합관광단지인 중문관광단지도 포함되어 있다. 수많은 볼거리와 먹거리 다양한 즐길 거리가 몰려있는 중문의 12월은 그야말로 '낭만' 그 자체다.작은 폭포와 칠선녀다리로 불리는 선임교의 풍경을 품고 있는 별내린 전망대에서는 날씨가 맑은 밤에 방문 시 제주 밤 하늘을 수놓은 별을 만날 수 있다. 동심으로 돌아가기 좋은 테디베어뮤지엄, 박물관이살아있다 등 중문에서만 만나볼 수 있는 실내 관광단지는 겨울에도 사랑받는 관광 스팟으로 손꼽힌다.이처럼 낭만을 가득 품은 제주와 관광의 중심인 중문의 매력을 만끽하고 싶다면 중문관광단지 인근에 자리 잡은 '히든호텔'을 추천한다.중문 인근에 있지만 시내 중심이 아닌 외곽으로 조용하게 휴식을 즐기고 싶은 이들에게 제격이다. 호텔 관계자는 "깔끔한 내부는 물론이고 호텔 인근의 한적하고 조용한 분위기로 최근 태교여행을 위해 호텔을 찾는 분들도 많다"고 설명했다.전 객실이 침대에 누워서도 탁 트인 제주의 바다를 감상할 수 있는 오션뷰 객실로 낮과 밤 할 것 없이 환상적인 조망을 자랑한다. 호텔 인근에는 올레길 7코스의 마지막과 8코스의 시작점부터 중문해수욕장, 중문관광단지, 제주를 대표하는 각종 맛집이 즐비해 있다.또한 별도로 마련된 야외 테라스에서는 제주 자연을 벗 삼은 휴식이 가능하며, 푸른 잔디 마당에서는 예비 부부들이 웨딩 촬영에 나선 모습도 심심치 않게 발견할 수 있을 정도. 그밖에 체크인을 위한 호텔 방문과 인근으로의 이동 시 픽업서비스도 제공(사전 연락 요망)하고 있어 제주도 숙박 시설 '히든호텔'을 보다 편리하게 이용할 수 있다.한편 중문 호텔 '히든호텔' 이용과 예약에 대한 더욱 자세한 내용은 홈페이지와 전화 문의를 통해 확인할 수 있다./온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>"유커 와도 저가관광은 이제 그만"…제주도·업계 자정 결의 본문 바로가기 이전 페이지 뉴스1 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 뉴스1 주요뉴스를 볼 수 있습니다. 보러가기 뉴스1 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 세계 생활 IT 사설/칼럼 랭킹 "유커 와도 저가관광은 이제 그만"…제주도·업계 자정 결의 입력2017.11.07. 오후 3:08 수정2017.11.07. 오후 3:34 기사원문 오미란 기자 오미란 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 6일 오후 5시 제주웰컴센터 3층 대회의실에서 제주도와 제주관광협회, 도내 관광업계 대표자간 간담회가 열리고 있다.(제주도 제공)© News1제주관광 독과점 여행사에 저가상품 판매금지 등 주문(제주=뉴스1) 오미란 기자 = 제주도와 제주지역 관광업계가 한·중관계 개선 움직임 속 저가관광 근절에 공동 노력키로 했다.제주도는 제주관광협회, 도내 면세·여행·숙박?외식?전세버스업계 대표자들과 간담회를 열고 중국 내 금한령(禁韓令·한국 단체관광 금지) 해제에 대비한 대책을 논의했다.이날 간담회에서 도내 관광업계는 저가관광, 독과점, 무자격 가이드 문제를 해결하기 위해서는 법·제도적인 접근 보다 업계의 자율적인 자정 노력이 선행돼야 한다는 데 인식을 함께 했다.특히 송객수수료와 관련해서는 도내 면세점들이 자발적인 기준을 마련해 제주관광 독과점 문제 등에 공동 노력해야 한다는 의견이 제시됐다.관련 문제로 제주관광의 이미지를 훼손하는 사례에 대해서는 행정의 강력한 단속과 제재가 필요하다는 요청도 이뤄졌다.이에 김영진 제주도관광협회장은 제주형 중국 전담 여행사 지정제와 크루즈 선석 배정 시 저가 관광상품 배제, 전세기 상품에 대한 선별적 예산지원, 서울에 대형여행사 설치 등의 대안을 제시했다.이승찬 도 관광국장은 무등록 여행사·가이드 운영에 강력한 단속·제재를 가하는 등 모든 정책수단을 가동해 저가관광 개선 등에 집중해 나갈 계획임을 밝혔다.제주관광 독과점 여행사에 대해서는 인두세 지급 관행과 저가상품 판매를 금지하고, 고품격 상품개발을 통한 영업 방법을 개선할 것을 강력히 주문했다.도 관계자는 "중국 단체관광객의 저가관광 개선을 위해 지속적으로 관광업계와 논의의 장을 마련해 제주관광의 체질개선과 시장다변화에 적극적으로 노력해 나겠다"고 밝혔다.mro1225@▶ '평창2018' 관련 뉴스·포토 보기▶ 여러분의 제보를 기다립니다.제보하기![© 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지] 오미란 기자(mro1225@news1.kr) 기자 프로필 구독 구독중 오미란 기자 구독자 0 응원수 0 서귀포 올가을 들어 가장 '쌀쌀'…내일 낮부터 평년기온 업자 부탁 받고 수감정보 유출한 현직 경찰관 '벌금형' 뉴스1의 구독 많은 기자 뉴스1 기사를 더 보고 싶다면? 구독 뉴스1 언론사 구독되었습니다. 메인 뉴스판에서 뉴스1 주요뉴스를 볼 수 있습니다. 보러가기 뉴스1 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ 뉴스1. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 홍준표 "개가 짖어도 기차는 간다"…친박 반발에 YS인용 유성엽 "안철수, 대표 자격 부족…호남 폄하, 배은망덕" '문재인은 빨갱이'…성관계 사진 올린 경찰 "같이 죽자"…아들과 갈등에 불 지른 50대父 사망 가출한 전 동거녀 지적장애 딸 성폭행한 50대 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 뉴스1 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 뉴스1 헤드라인 법사위, 감사원 국감 파행…野, 국토위서 '감사원장' 증인 요구(종합) 정재민 최동현 이균진 기자 = 여야가 감사원을 두고 출동했다. 법제사법위원회는 여야의 신경전으로 국정감사를 시작한 지 8분 만에 감사 중지를 선언했고, 국토교통위원회에서는 최재해 감사원장을 국정감사 증인으로 채택해야 '푸틴 동원령' 러시아 난민들…8명 탄 보트, 韓 동해에도 왔다 블라디미르 푸틴 러시아 대통령이 쏘아 올린 '예비군 30만명 동원령'에 국외 탈출 열풍이 지속되는 가운데 10일(현지시간) 최근 자전거, 요트 등 이색 수단으로 탈출한 사람들이 늘고 있어 화제가 되고 있다. 영국 공 尹, 한일 군사협력 논란에 "핵위협 앞에 우려가 정당화될 수 있나" 김일창 유새슬 기자 = 윤석열 대통령은 11일 "북핵 위협이 날로 심각해지고 있다"며 "저는 누누이 강조했지만 굳건한 한미동맹과 한미일 안보협력을 바탕으로 아주 견고한 대응체제를 구축해서 잘 대비, 대응해 나가겠다" “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 신혜성, 도난차량서 음주측정 거부하다 현행범 체포 그룹 신화의 멤버 신혜성이 도난 신고된 자동차에서 음주측정을 거부하다 현행범으로 체포됐다. 서울 송파경찰서는 신씨를 도로교통법상 음주측정거부와 절도 혐의로 체포해 조사 중이라고 11일 밝혔다. 신씨는 이날 새벽 1시 '60대' 선우은숙, 4살 연하 유영재 아나운서와 결혼…"혼인신고 마쳤다" 배우 선우은숙(63)이 아나운서 유영재(59)와 결혼했다. 11일 소속사 스타잇엔터테인먼트 측은 "선우은숙씨가 좋은 인연을 만나 결혼이라는 사랑의 결실을 맺게 됐다"라고 밝혔다. 소속사 측은 "상대는 아나운서 유영재 이전 뉴스들 보기 3 다음 뉴스들 보기 뉴스1이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 뉴스1 헤드라인 더보기 법사위, 감사원 국감 파행…野, 국토위서 '감사원장' 증인 요구(종합) 1시간전 '푸틴 동원령' 러시아 난민들…8명 탄 보트, 韓 동해에도 왔다 1시간전 尹, 한일 군사협력 논란에 "핵위협 앞에 우려가 정당화될 수 있나" 3시간전 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 6시간전 신혜성, 도난차량서 음주측정 거부하다 현행범 체포 3시간전 '60대' 선우은숙, 4살 연하 유영재 아나운서와 결혼…"혼인신고 마쳤다" 4시간전 뉴스1 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 '60대' 선우은숙, 4살 연하 유영재 아나운서와 결혼…"혼인신고 마쳤다" 4시간전 2 신혜성, 도난차량서 음주측정 거부하다 현행범 체포 3시간전 3 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 6시간전 4 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 거짓말" 5시간전 5 安 "총선 승리가 지상목표" vs 金 "대선 불출마 기대"…신경전 '가열' 2시간전 1 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 거짓말" 5시간전 2 '60대' 선우은숙, 4살 연하 유영재 아나운서와 결혼…"혼인신고 마쳤다" 4시간전 3 尹, 한일 군사협력 논란에 "핵위협 앞에 우려가 정당화될 수 있나" 3시간전 4 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 6시간전 5 신혜성, 도난차량서 음주측정 거부하다 현행범 체포 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 같은 번호판을 단 2대의 차량이 동시에 존재하는데도 경찰과 지자체가 7달째 영문도 파악하지 못했다는 지적이 나왔다. 10일 KBS는 강원 동해시에서 파란색 화물차(H사 차종)를 운행하는 임모 씨의 제보 사연을 전했다 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 러시아가 크림대교 폭발 사고 이후 이틀 만인 지난 10일(현지시간) 우크라이나 수도 키이우 등 주요 도시에 미사일 공격을 퍼부은 가운데 공습 당시 다리를 건너다 가까스로 목숨을 건진 시민의 모습이 포착됐다. 10일 정진석 “조선, 일본군 때문에 망한 것 아냐… 안에서 썩어 문드러져” 여당 대표가 ‘식민사관’ 기반 주장 펼쳐 파장 정 비대위원장, 이재명 겨냥 “경박한 역사 인식” 이재명, 한미일 군사훈련에 대해 “친일 국방”이라고 공세 野 “철학적으로 문제가 있는 것” 국민의힘 정진석 비상대책위원 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 국내에서 가장 긴 다리인 인천대교에서 최근 5년간 40건이 넘는 투신 사고가 발생해 30명이 목숨을 잃은 것으로 나타났다. 특히 지난해부터 사고가 급증하고 있어 대책 마련이 시급하다. ● 끊이지 않는 인천대교 투신 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 "주택대출 안 갚겠다" 뿔난 서민들…무너지는 중국 부동산 중국 경제의 핵심 축인 부동산산업에 경고음이 울리고 있다. 오는 16일 개막하는 중국 공산당 전국대표대회(당대회)에서 지도부가 어떤 대응책을 내놓을지 주목된다. 10일 시장정보 업체 중국부동산정보(CRIC)에 따르면 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 "수육국밥 주문하려고요" 112 신고 사례 홍보에 국민들 난감 수육국밥을 주문하려고요." 지난달 20일 오후 4시 57분께 걸려 온 신고 전화다. A경사는 여성 신고자의 떨리는 목소리를 수상히 여겨 관할 경찰서에 현장 출동을 요청했고 20대 여성을 구조했다. 택시기사들이 본인 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 “여보, 대출이 왜 안나오지?” 금리오르자 1년새 아파트 대출 1억 줄었다[기준금리 3% 시대] “월급도 올랐는데, 대출한도는 왜 줄어든 건가요?” 대기업에 다니는 40대 직장인 A씨는 최근 마이너스 통장 만기가 다 돼 연장하는 과정에서 금리는 4%대에서 6.1%로, 한도는 5000만원에서 4000만원으로 줄었 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, 재생하기 재생시간04:32 [현장영상+] 尹, 국무회의 주재..."전 정부 폐지한 학업성취도 전수평가 실시" 윤석열 대통령이 지난 정부에서 폐지했던 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하겠다고 발표했습니다. 줄 세우기라는 비판 뒤에 숨어 교육을 방치한다면 대한민국의 미래도 어두워질 것이라고 강조했는데 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 “여보세요. 어머니, 어머니… 어머니, 저 모르겠어요. 여기가 어딘지 모르겠어요." 지난 9월 29일 새벽 4시를 훌쩍 넘긴 야심한 시각. 울산경찰청 112 신고로 한 소년이 전화해 대뜸 ‘어머니’를 연신 애타게 찾 윤 대통령 "청년들이 좌절 않게 희망의 사다리 놓아야" 윤석열 대통령은 청년들이 미래를 설계할 수 있도록 희망의 사다리를 놓아야 한다고 강조했습니다. 윤 대통령은 오늘 오전 용산 대통령실에서 열린 제45회 국무회의 모두 발언에서, "청년들의 꿈이 좌절되지 않도록 할 책임 여성 치매는 ‘이 효소’ 때문...남성보다 2배 많은 이유 여성이 남성보다 치매 중 알츠하이머병에 약 2배 더 잘 걸리는 것은 특정 효소 때문인 것으로 밝혀졌다. 미국 케이스웨스턴대 연구팀은 생쥐와 인간의 뇌 조직에서 알츠하이머병과 관련된 차이점을 설명할 수 있는 증거를 발 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 이복현 금감원장 "가계부채 관리 절실하지 못했다…송구" 이복현 금융감독원장은 11일 가계부채 관리와 관련해 "양적 긴축 내지는 금리 인상 기조가 있을 것을 전제로 준비할 필요가 있었다는 아쉬움에 대해 공감한다"고 말했다. 이 원장은 이날 국회에서 열린 국회 정무위원회 금 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 프라이탁은 어떻게 소비자를 사로잡았나 혜마케터의 브랜드 마케팅 유료 요리, 그림자 노동의 아픔을 그려내다 정여울의 살롱 드 뮤즈 유료 &lt;정직한 후보2&gt; 앙꼬없는 찐빵 shot by shot 유료 얼마만에 반등이야.. 코스피 코스닥 상승 마감 22.10.4 국내증시 마감 리뷰 경제적자유로 파닭거리기 유료 뉴욕타임스가 보도한 IMF 경험한 한국의 위기대응 능력은? 혜리포터+X 유료 골드만삭스가 핸드메이드 플랫폼에 주목한 이유 머니네버슬립 유료 &lt;스마일&gt; 트라우마로 엮인 사슬의 끝은 어디로 향하고 있는가. shot by shot 유료 게슈타포와 경찰에도 안 밀린 우니온, 베를린의 적자 스포츠LAB 유료 자금을 관리하는 팀, 내가 임원이라면 무엇부터 생각할까? 팀장클럽 PRO 미국 반도체 규제에 맞불... 중국, 희토류 수출 통제 주장 머니서퍼 유료 한화의 대우조선해양 인수 그 이유는? #대박딜? 리치플랫폼 하락장을 짧게 봐야 하는 합리적인 이유 Economic For You 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 뉴스1 예 아니오</t>
+  </si>
+  <si>
+    <t>영천시, ‘영천와인’ 제주도 관광지서 홍보행사 가져 - 신아일보 × 전체기사 정치 전체 정치일반 대통령실 국회·정당 선거 외교·안보 국방·북한 남북회담 경제 전체 경제일반 은행 건설·부동산 교통·물류 보험 증권 카드 산업 전체 ICT 생활경제 자동차 게임 재계 중후장대 중소기업 정책 건설부동산 전체 건설·부동산 교통·물류 프롭테크 사회 전체 사회일반 사건·사고 교육·학교 의료·보건 노동·복지 환경·날씨 국제 전체 국제일반 국제경제 로컬+ 전체 서울 경기 인천 강원 대전·충청 대구·경북 부산·울산·경남 광주·전북·전남·제주 오피니언 전체 신아 칼럼 사람들 기자수첩 독자투고 인사·동정 부고 알립니다 문화 전체 문화일반 방송·연예 스포츠 평창 Sview 전체 포토뉴스 영상뉴스 2022-10-11 (화) 구독신청 로그인 회원가입 모바일웹 지면보기 정치 정치일반 대통령실 국회·정당 국방·북한 경제 경제일반 은행 보험 증권 카드 산업 정책 재계 중후장대 자동차 ICT 게임 생활경제 중소기업 건설부동산 건설·부동산 교통·물류 프롭테크 사회 사회일반 사건·사고 교육·학교 환경·날씨 로컬+ 서울 경기 인천 강원 대전·충청 대구·경북 부산·울산·경남 광주·전북·전남 글로벌 국제일반 국제경제 Sview 이슈분석 검색버튼 기사검색 검색 이전 다음 영천시, ‘영천와인’ 제주도 관광지서 홍보행사 가져 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 로컬+ 대구·경북 영천시, ‘영천와인’ 제주도 관광지서 홍보행사 가져 장병욱 기자 승인 2017.11.14 10:23 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 유명 관광지 한림공원서…영천와인 우수성 알려 영천와인 홍보행사(사진=영천시) 경북 영천시가 국내 최대 포도 주산지를 기반으로 전국 최대 와인생산(27만병/년)지로 성장한 가운데 제주도 관광지에서 영천와인 홍보행사를 가졌다. 14일 시에 따르면 지난 10일부터 11일까지 영천와인 홍보행사는 제주도 유명 관광지인 한림공원(한림읍 협재리)에서 영천와인 무료시음과 함께 전국 각지는 물론 해외에서 제주를 찾은 여행객들에게 영천와인을 홍보했다. 이번 행사에는 영천의 18개 와이너리 중 12개 와이너리가 직접 참여해 관광객들에게 각 와이너리의 특징과 포도 재배부터 와인이 생산된 과정까지 설명하며 영천에서 생산된 와인에 대한 신뢰를 줬다. 특히 일반 관광객을 대상으로 한 홍보와 제주도내 관광업 관계자를 대상으로 한 홍보가 별도로 진행됐는데 호텔 및 대학 관광학과, 식음료, 관광업 등 관련 종사자 70여명을 초청해 영천와인의 우수성을 홍보하고 제주 관광업계와의 교류, 판로 개척 및 협력 사업을 모색하는 시간을 가졌다. 김선주 농업기술센터소장은 “이번 홍보행사를 통해 영천와인의 우수성을 전국에 알리고 다가갈 수 있는 계기가 될 것으로 기대된다”며 “앞으로 영천시는 전국으로 지역 와인 홍보행사를 확대함으로써 국내 어디서나 영천와인을 쉽게 만나고 소비할 수 있도록 만들어 나가겠다”고 밝혔다. [신아일보] 영천/장병욱 기자 bwjang2834@hanmail.net 저작권자 © 신아일보 무단전재 및 재배포 금지 장병욱 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 후 댓글 작성이 가능합니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 오늘의 경제 뉴스 '6조원' 정조준 은행권 동산담보대출…목표달성 난항 이복현 금감원장, "불공정 거래행위 엄중 조치" 이창용 한은 총재, G20 재무장관·중앙은행 총재 회의 참석 DGB사회공헌재단, 대한민국 교육기부 대상 교육부 장관상 수상 대형 증권사, 미국 주식 주간거래 경쟁 '점입가경' 스포츠&amp;연예 뉴스 1'작은아씨들' 김고은, 이승기·이세영 제치고 10월 드라마배우 브랜드평판 '1위' 2네이버 웹툰 'TLT' 연재한 ‘라이브 드로잉’ 작가 김정기 사망 3‘파죽지세’ 임영웅, 79주 연속 아이돌차트 평점랭킹 ‘1위’ 많이 본 기사 1 [10월 달라진 것] '소상공인·자영업자' 채무감면…코로나19 도약 지원 2 10월 '대한민국 엔지니어상' SK하이닉스 안정열 TL 수상 3 [데스크 칼럼] 공매도, 못 잡나 안 잡나 4 홍천군 내면 은행나무 숲, 3년만에 개방 5 [주간분양] 이번 주 '양정자이더샵SK뷰' 등 19개 단지 청약 6 軍문화엑스포, 해군·공군의날 행사 개최 7 에디슨모터스 강영권 회장 구속… “증거인멸·도주 우려” 8 '공은 거래소로' 신라젠, 명운 좌우 코시위 12일 열린다 9 우크라 키이우서 폭발음… "시내 중심부 곳곳 검은 연기" 10 빗장 풀린 하늘길, 카드사 해외 마케팅 '분주' 최신기사 함평군, ‘콩 융복합단지 조성사업’ 공모 선정 부산교육청, 하반기 교육공무직원 452명 선발 이상호 태백시장, 강원관광대 총장과 소통간담회 '디지털, 당신의 뜻대로'…12일부터 스마트 모빌리티 물류 산업전 강원도영월교육지원청, '영월 박물관 이야기' 발간 서대문구, 제19회 대한민국 평생학습대상 특별상 수상 '제18회 경주시장배 바둑대회' 성료 오피니언 신아 칼럼공매도, 못 잡나 안 잡나 기자수첩공공기관 혁신, 성과로 말해야 독자투고골든타임 확보를 위한 긴급차량 양보운전의 배려 사람들목숨 걸고 지킨 땅 다시 밟는 구순 노병 신문사소개 기사제보 광고문의 불편신고 고충처리 편집규약 독자권익위 개인정보취급방침 청소년보호정책 기자윤리강령 이메일무단수집거부 RSS 서울특별시 종로구 우정국로 68 (동덕빌딩) 대표전화 : 02-2637-1131 팩스 : 02-2637-1132 명칭 : 신아일보미디어(주) 제호 : 신아일보 등록번호 : 서울 아 04514 등록일 : 2017-05-08 발행일 : 2003-06-08 발행인 겸 편집인 : 이형열 청소년보호책임자 : 이승매 신아일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 신아일보. All rights reserved. mail to master@shinailbo.co.kr 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +588,62 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
